--- a/RMS-RA Data check/RMS-RA部门销售数据核对/表格/RMS-RA数据核对2016-05-01.xlsx
+++ b/RMS-RA Data check/RMS-RA部门销售数据核对/表格/RMS-RA数据核对2016-05-01.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WORK\BBG\RMS-RA Data check\RMS-RA部门销售数据核对\表格\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="8505" yWindow="105" windowWidth="10095" windowHeight="5280"/>
   </bookViews>
@@ -16,7 +11,7 @@
     <sheet name="RA" sheetId="3" r:id="rId2"/>
     <sheet name="RMS" sheetId="4" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
@@ -317,7 +312,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="8">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
@@ -328,7 +323,7 @@
     <numFmt numFmtId="180" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="181" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
   </numFmts>
-  <fonts count="91" x14ac:knownFonts="1">
+  <fonts count="91">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -2465,7 +2460,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="85">
+  <cellXfs count="82">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="177" fontId="33" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -2546,17 +2541,11 @@
     <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="34" fillId="33" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="34" fillId="33" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="34" fillId="33" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="34" fillId="33" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="33" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="35" fillId="33" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -2570,120 +2559,122 @@
     <xf numFmtId="49" fontId="34" fillId="33" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="19" xfId="369" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="34" fillId="33" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="34" fillId="33" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="34" fillId="33" borderId="15" xfId="369" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="34" fillId="33" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="34" fillId="33" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="33" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="33" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="33" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="35" fillId="33" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="369" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="49" fontId="35" fillId="33" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="34" fillId="33" borderId="12" xfId="369" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="35" fillId="33" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="35" fillId="34" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="35" fillId="34" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="35" fillId="34" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="34" fillId="33" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="34" fillId="33" borderId="16" xfId="369" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="34" fillId="35" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="34" fillId="35" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="34" fillId="35" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="34" fillId="33" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="34" fillId="33" borderId="17" xfId="369" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="35" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="35" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="34" fillId="33" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="35" fillId="33" borderId="15" xfId="369" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="35" fillId="33" borderId="14" xfId="369" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="35" fillId="33" borderId="13" xfId="369" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="33" borderId="15" xfId="369" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="33" borderId="13" xfId="369" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="369" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="34" fillId="33" borderId="13" xfId="369" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="369">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="369" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="19" xfId="369" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="10" xfId="369" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="11" xfId="369" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="11" xfId="369" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="34" fillId="33" borderId="10" xfId="369" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="34" fillId="33" borderId="12" xfId="369" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="33" borderId="10" xfId="369" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="33" borderId="12" xfId="369" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="35" fillId="34" borderId="10" xfId="369" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="34" fillId="35" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="35" fillId="34" borderId="10" xfId="369" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="35" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="35" fillId="34" borderId="12" xfId="369" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="34" fillId="35" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="4" fontId="34" fillId="35" borderId="10" xfId="369" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="34" fillId="35" borderId="10" xfId="369" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="34" fillId="35" borderId="12" xfId="369" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="35" borderId="10" xfId="369" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="35" borderId="12" xfId="369" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="34" fillId="35" borderId="13" xfId="369" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="35" borderId="13" xfId="369" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="34" fillId="35" borderId="13" xfId="369" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="34" fillId="35" borderId="20" xfId="369" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="34" fillId="35" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="383">
+    <cellStyle name="20% - 强调文字颜色 1" xfId="19" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - 强调文字颜色 1 2" xfId="192"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="23" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% - 强调文字颜色 2 2" xfId="196"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="27" builtinId="38" customBuiltin="1"/>
     <cellStyle name="20% - 强调文字颜色 3 2" xfId="200"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="31" builtinId="42" customBuiltin="1"/>
     <cellStyle name="20% - 强调文字颜色 4 2" xfId="204"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="35" builtinId="46" customBuiltin="1"/>
     <cellStyle name="20% - 强调文字颜色 5 2" xfId="208"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="39" builtinId="50" customBuiltin="1"/>
     <cellStyle name="20% - 强调文字颜色 6 2" xfId="212"/>
-    <cellStyle name="20% - 着色 1" xfId="19" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - 着色 1 10" xfId="287"/>
     <cellStyle name="20% - 着色 1 11" xfId="301"/>
     <cellStyle name="20% - 着色 1 12" xfId="315"/>
@@ -2699,7 +2690,6 @@
     <cellStyle name="20% - 着色 1 7" xfId="245"/>
     <cellStyle name="20% - 着色 1 8" xfId="259"/>
     <cellStyle name="20% - 着色 1 9" xfId="273"/>
-    <cellStyle name="20% - 着色 2" xfId="23" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% - 着色 2 10" xfId="289"/>
     <cellStyle name="20% - 着色 2 11" xfId="303"/>
     <cellStyle name="20% - 着色 2 12" xfId="317"/>
@@ -2715,7 +2705,6 @@
     <cellStyle name="20% - 着色 2 7" xfId="247"/>
     <cellStyle name="20% - 着色 2 8" xfId="261"/>
     <cellStyle name="20% - 着色 2 9" xfId="275"/>
-    <cellStyle name="20% - 着色 3" xfId="27" builtinId="38" customBuiltin="1"/>
     <cellStyle name="20% - 着色 3 10" xfId="291"/>
     <cellStyle name="20% - 着色 3 11" xfId="305"/>
     <cellStyle name="20% - 着色 3 12" xfId="319"/>
@@ -2731,7 +2720,6 @@
     <cellStyle name="20% - 着色 3 7" xfId="249"/>
     <cellStyle name="20% - 着色 3 8" xfId="263"/>
     <cellStyle name="20% - 着色 3 9" xfId="277"/>
-    <cellStyle name="20% - 着色 4" xfId="31" builtinId="42" customBuiltin="1"/>
     <cellStyle name="20% - 着色 4 10" xfId="293"/>
     <cellStyle name="20% - 着色 4 11" xfId="307"/>
     <cellStyle name="20% - 着色 4 12" xfId="321"/>
@@ -2747,7 +2735,6 @@
     <cellStyle name="20% - 着色 4 7" xfId="251"/>
     <cellStyle name="20% - 着色 4 8" xfId="265"/>
     <cellStyle name="20% - 着色 4 9" xfId="279"/>
-    <cellStyle name="20% - 着色 5" xfId="35" builtinId="46" customBuiltin="1"/>
     <cellStyle name="20% - 着色 5 10" xfId="295"/>
     <cellStyle name="20% - 着色 5 11" xfId="309"/>
     <cellStyle name="20% - 着色 5 12" xfId="323"/>
@@ -2763,7 +2750,6 @@
     <cellStyle name="20% - 着色 5 7" xfId="253"/>
     <cellStyle name="20% - 着色 5 8" xfId="267"/>
     <cellStyle name="20% - 着色 5 9" xfId="281"/>
-    <cellStyle name="20% - 着色 6" xfId="39" builtinId="50" customBuiltin="1"/>
     <cellStyle name="20% - 着色 6 10" xfId="297"/>
     <cellStyle name="20% - 着色 6 11" xfId="311"/>
     <cellStyle name="20% - 着色 6 12" xfId="325"/>
@@ -2779,13 +2765,18 @@
     <cellStyle name="20% - 着色 6 7" xfId="255"/>
     <cellStyle name="20% - 着色 6 8" xfId="269"/>
     <cellStyle name="20% - 着色 6 9" xfId="283"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="20" builtinId="31" customBuiltin="1"/>
     <cellStyle name="40% - 强调文字颜色 1 2" xfId="193"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="24" builtinId="35" customBuiltin="1"/>
     <cellStyle name="40% - 强调文字颜色 2 2" xfId="197"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="28" builtinId="39" customBuiltin="1"/>
     <cellStyle name="40% - 强调文字颜色 3 2" xfId="201"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="32" builtinId="43" customBuiltin="1"/>
     <cellStyle name="40% - 强调文字颜色 4 2" xfId="205"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="36" builtinId="47" customBuiltin="1"/>
     <cellStyle name="40% - 强调文字颜色 5 2" xfId="209"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51" customBuiltin="1"/>
     <cellStyle name="40% - 强调文字颜色 6 2" xfId="213"/>
-    <cellStyle name="40% - 着色 1" xfId="20" builtinId="31" customBuiltin="1"/>
     <cellStyle name="40% - 着色 1 10" xfId="288"/>
     <cellStyle name="40% - 着色 1 11" xfId="302"/>
     <cellStyle name="40% - 着色 1 12" xfId="316"/>
@@ -2801,7 +2792,6 @@
     <cellStyle name="40% - 着色 1 7" xfId="246"/>
     <cellStyle name="40% - 着色 1 8" xfId="260"/>
     <cellStyle name="40% - 着色 1 9" xfId="274"/>
-    <cellStyle name="40% - 着色 2" xfId="24" builtinId="35" customBuiltin="1"/>
     <cellStyle name="40% - 着色 2 10" xfId="290"/>
     <cellStyle name="40% - 着色 2 11" xfId="304"/>
     <cellStyle name="40% - 着色 2 12" xfId="318"/>
@@ -2817,7 +2807,6 @@
     <cellStyle name="40% - 着色 2 7" xfId="248"/>
     <cellStyle name="40% - 着色 2 8" xfId="262"/>
     <cellStyle name="40% - 着色 2 9" xfId="276"/>
-    <cellStyle name="40% - 着色 3" xfId="28" builtinId="39" customBuiltin="1"/>
     <cellStyle name="40% - 着色 3 10" xfId="292"/>
     <cellStyle name="40% - 着色 3 11" xfId="306"/>
     <cellStyle name="40% - 着色 3 12" xfId="320"/>
@@ -2833,7 +2822,6 @@
     <cellStyle name="40% - 着色 3 7" xfId="250"/>
     <cellStyle name="40% - 着色 3 8" xfId="264"/>
     <cellStyle name="40% - 着色 3 9" xfId="278"/>
-    <cellStyle name="40% - 着色 4" xfId="32" builtinId="43" customBuiltin="1"/>
     <cellStyle name="40% - 着色 4 10" xfId="294"/>
     <cellStyle name="40% - 着色 4 11" xfId="308"/>
     <cellStyle name="40% - 着色 4 12" xfId="322"/>
@@ -2849,7 +2837,6 @@
     <cellStyle name="40% - 着色 4 7" xfId="252"/>
     <cellStyle name="40% - 着色 4 8" xfId="266"/>
     <cellStyle name="40% - 着色 4 9" xfId="280"/>
-    <cellStyle name="40% - 着色 5" xfId="36" builtinId="47" customBuiltin="1"/>
     <cellStyle name="40% - 着色 5 10" xfId="296"/>
     <cellStyle name="40% - 着色 5 11" xfId="310"/>
     <cellStyle name="40% - 着色 5 12" xfId="324"/>
@@ -2865,7 +2852,6 @@
     <cellStyle name="40% - 着色 5 7" xfId="254"/>
     <cellStyle name="40% - 着色 5 8" xfId="268"/>
     <cellStyle name="40% - 着色 5 9" xfId="282"/>
-    <cellStyle name="40% - 着色 6" xfId="40" builtinId="51" customBuiltin="1"/>
     <cellStyle name="40% - 着色 6 10" xfId="298"/>
     <cellStyle name="40% - 着色 6 11" xfId="312"/>
     <cellStyle name="40% - 着色 6 12" xfId="326"/>
@@ -2881,28 +2867,28 @@
     <cellStyle name="40% - 着色 6 7" xfId="256"/>
     <cellStyle name="40% - 着色 6 8" xfId="270"/>
     <cellStyle name="40% - 着色 6 9" xfId="284"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32" customBuiltin="1"/>
     <cellStyle name="60% - 强调文字颜色 1 2" xfId="194"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="25" builtinId="36" customBuiltin="1"/>
     <cellStyle name="60% - 强调文字颜色 2 2" xfId="198"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="29" builtinId="40" customBuiltin="1"/>
     <cellStyle name="60% - 强调文字颜色 3 2" xfId="202"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="33" builtinId="44" customBuiltin="1"/>
     <cellStyle name="60% - 强调文字颜色 4 2" xfId="206"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="37" builtinId="48" customBuiltin="1"/>
     <cellStyle name="60% - 强调文字颜色 5 2" xfId="210"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="41" builtinId="52" customBuiltin="1"/>
     <cellStyle name="60% - 强调文字颜色 6 2" xfId="214"/>
-    <cellStyle name="60% - 着色 1" xfId="21" builtinId="32" customBuiltin="1"/>
     <cellStyle name="60% - 着色 1 2" xfId="86"/>
     <cellStyle name="60% - 着色 1 3" xfId="152"/>
-    <cellStyle name="60% - 着色 2" xfId="25" builtinId="36" customBuiltin="1"/>
     <cellStyle name="60% - 着色 2 2" xfId="90"/>
     <cellStyle name="60% - 着色 2 3" xfId="156"/>
-    <cellStyle name="60% - 着色 3" xfId="29" builtinId="40" customBuiltin="1"/>
     <cellStyle name="60% - 着色 3 2" xfId="94"/>
     <cellStyle name="60% - 着色 3 3" xfId="160"/>
-    <cellStyle name="60% - 着色 4" xfId="33" builtinId="44" customBuiltin="1"/>
     <cellStyle name="60% - 着色 4 2" xfId="98"/>
     <cellStyle name="60% - 着色 4 3" xfId="164"/>
-    <cellStyle name="60% - 着色 5" xfId="37" builtinId="48" customBuiltin="1"/>
     <cellStyle name="60% - 着色 5 2" xfId="102"/>
     <cellStyle name="60% - 着色 5 3" xfId="168"/>
-    <cellStyle name="60% - 着色 6" xfId="41" builtinId="52" customBuiltin="1"/>
     <cellStyle name="60% - 着色 6 2" xfId="106"/>
     <cellStyle name="60% - 着色 6 3" xfId="172"/>
     <cellStyle name="OBI_ColHeader" xfId="109"/>
@@ -2992,11 +2978,17 @@
     <cellStyle name="千位分隔 2" xfId="63"/>
     <cellStyle name="千位分隔[0]" xfId="112" builtinId="6" customBuiltin="1"/>
     <cellStyle name="千位分隔[0] 2" xfId="64"/>
+    <cellStyle name="强调文字颜色 1" xfId="18" builtinId="29" customBuiltin="1"/>
     <cellStyle name="强调文字颜色 1 2" xfId="191"/>
+    <cellStyle name="强调文字颜色 2" xfId="22" builtinId="33" customBuiltin="1"/>
     <cellStyle name="强调文字颜色 2 2" xfId="195"/>
+    <cellStyle name="强调文字颜色 3" xfId="26" builtinId="37" customBuiltin="1"/>
     <cellStyle name="强调文字颜色 3 2" xfId="199"/>
+    <cellStyle name="强调文字颜色 4" xfId="30" builtinId="41" customBuiltin="1"/>
     <cellStyle name="强调文字颜色 4 2" xfId="203"/>
+    <cellStyle name="强调文字颜色 5" xfId="34" builtinId="45" customBuiltin="1"/>
     <cellStyle name="强调文字颜色 5 2" xfId="207"/>
+    <cellStyle name="强调文字颜色 6" xfId="38" builtinId="49" customBuiltin="1"/>
     <cellStyle name="强调文字颜色 6 2" xfId="211"/>
     <cellStyle name="适中" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="适中 2" xfId="74"/>
@@ -3010,22 +3002,16 @@
     <cellStyle name="已访问的超链接" xfId="43" builtinId="9" customBuiltin="1"/>
     <cellStyle name="已访问的超链接 2" xfId="108"/>
     <cellStyle name="已访问的超链接 3" xfId="174"/>
-    <cellStyle name="着色 1" xfId="18" builtinId="29" customBuiltin="1"/>
     <cellStyle name="着色 1 2" xfId="83"/>
     <cellStyle name="着色 1 3" xfId="149"/>
-    <cellStyle name="着色 2" xfId="22" builtinId="33" customBuiltin="1"/>
     <cellStyle name="着色 2 2" xfId="87"/>
     <cellStyle name="着色 2 3" xfId="153"/>
-    <cellStyle name="着色 3" xfId="26" builtinId="37" customBuiltin="1"/>
     <cellStyle name="着色 3 2" xfId="91"/>
     <cellStyle name="着色 3 3" xfId="157"/>
-    <cellStyle name="着色 4" xfId="30" builtinId="41" customBuiltin="1"/>
     <cellStyle name="着色 4 2" xfId="95"/>
     <cellStyle name="着色 4 3" xfId="161"/>
-    <cellStyle name="着色 5" xfId="34" builtinId="45" customBuiltin="1"/>
     <cellStyle name="着色 5 2" xfId="99"/>
     <cellStyle name="着色 5 3" xfId="165"/>
-    <cellStyle name="着色 6" xfId="38" builtinId="49" customBuiltin="1"/>
     <cellStyle name="着色 6 2" xfId="103"/>
     <cellStyle name="着色 6 3" xfId="169"/>
     <cellStyle name="注释" xfId="15" builtinId="10" customBuiltin="1"/>
@@ -21386,7 +21372,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -21406,7 +21392,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -21443,7 +21429,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:link="rId450" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -21463,7 +21449,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -21498,7 +21484,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -21518,7 +21504,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -21555,7 +21541,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:link="rId452" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -21575,7 +21561,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -21610,7 +21596,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -21630,7 +21616,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -21667,7 +21653,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:link="rId454" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -21687,7 +21673,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -21722,7 +21708,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -21742,7 +21728,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -21779,7 +21765,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:link="rId456" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -21799,7 +21785,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -21834,7 +21820,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -21854,7 +21840,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -21891,7 +21877,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:link="rId458" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -21911,7 +21897,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -21946,7 +21932,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -21966,7 +21952,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -22003,7 +21989,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:link="rId460" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -22023,7 +22009,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -22058,7 +22044,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -22078,7 +22064,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -22115,7 +22101,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:link="rId462" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -22135,7 +22121,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -22170,7 +22156,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -22190,7 +22176,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -22227,7 +22213,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:link="rId464" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -22247,7 +22233,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -22282,7 +22268,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -22302,7 +22288,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -22339,7 +22325,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:link="rId466" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -22359,7 +22345,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -22394,7 +22380,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -22414,7 +22400,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -22451,7 +22437,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:link="rId468" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -22471,7 +22457,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -22506,7 +22492,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -22526,7 +22512,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -22563,7 +22549,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:link="rId470" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -22583,7 +22569,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -26211,7 +26197,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
+      <xdr:colOff>85725</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
@@ -44594,7 +44580,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -44614,7 +44600,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -44651,7 +44637,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:link="rId450" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -44671,7 +44657,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -44706,7 +44692,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -44726,7 +44712,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -44763,7 +44749,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:link="rId452" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -44783,7 +44769,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -44818,7 +44804,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -44838,7 +44824,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -44875,7 +44861,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:link="rId454" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -44895,7 +44881,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -44930,7 +44916,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -44950,7 +44936,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -44987,7 +44973,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:link="rId456" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -45007,7 +44993,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -45042,7 +45028,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -45062,7 +45048,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -45099,7 +45085,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:link="rId458" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -45119,7 +45105,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -45154,7 +45140,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -45174,7 +45160,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -45211,7 +45197,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:link="rId460" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -45231,7 +45217,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -45266,7 +45252,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -45286,7 +45272,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -45323,7 +45309,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:link="rId462" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -45343,7 +45329,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -45378,7 +45364,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -45398,7 +45384,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -45435,7 +45421,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:link="rId464" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -45455,7 +45441,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -45490,7 +45476,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -45510,7 +45496,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -45547,7 +45533,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:link="rId466" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -45567,7 +45553,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -45602,7 +45588,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -45622,7 +45608,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -45659,7 +45645,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:link="rId468" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -45679,7 +45665,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -45714,7 +45700,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -45734,7 +45720,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -45771,7 +45757,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:link="rId470" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -45791,7 +45777,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -49419,7 +49405,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
+      <xdr:colOff>85725</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
@@ -53746,6 +53732,88 @@
       <xdr:spPr bwMode="auto">
         <a:xfrm>
           <a:off x="19792950" y="0"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1222" name="Picture 1" descr="徽标"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="523875" cy="333375"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1223" name="Picture 2" descr="cid:75c1ab4013">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId667" tgtFrame="_blank"/>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:link="rId668" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="20031075" y="0"/>
           <a:ext cx="304800" cy="304800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -53802,7 +53870,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -53834,10 +53902,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -53869,7 +53936,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -54045,7 +54111,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:M41"/>
   <sheetViews>
@@ -54056,7 +54122,7 @@
       <selection pane="bottomRight" activeCell="I32" sqref="I32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="11.25"/>
   <cols>
     <col min="1" max="1" width="9.7109375" style="1" customWidth="1"/>
     <col min="2" max="2" width="4.5703125" style="4" customWidth="1"/>
@@ -54071,7 +54137,7 @@
     <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13">
       <c r="A1" s="5"/>
       <c r="B1" s="6"/>
       <c r="C1" s="7"/>
@@ -54101,15 +54167,15 @@
         <v>44</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13">
       <c r="A2" s="11" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="12"/>
-      <c r="C2" s="45" t="s">
+      <c r="C2" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="45"/>
+      <c r="D2" s="42"/>
       <c r="E2" s="13"/>
       <c r="F2" s="24"/>
       <c r="G2" s="14"/>
@@ -54119,28 +54185,28 @@
       <c r="K2" s="22"/>
       <c r="L2" s="22"/>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A3" s="46" t="s">
+    <row r="3" spans="1:13">
+      <c r="A3" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="46"/>
-      <c r="C3" s="46"/>
-      <c r="D3" s="46"/>
+      <c r="B3" s="44"/>
+      <c r="C3" s="44"/>
+      <c r="D3" s="44"/>
       <c r="E3" s="15">
         <f>SUM(E4:E41)</f>
-        <v>58186279.487500004</v>
+        <v>58323652.997500002</v>
       </c>
       <c r="F3" s="25">
         <f>RA!I7</f>
-        <v>-1220905.4486</v>
+        <v>-1251002.1886</v>
       </c>
       <c r="G3" s="16">
         <f>SUM(G4:G41)</f>
-        <v>59407629.885499999</v>
+        <v>59575100.135500006</v>
       </c>
       <c r="H3" s="27">
         <f>RA!J7</f>
-        <v>-2.0980144796405198</v>
+        <v>-2.1446701873635399</v>
       </c>
       <c r="I3" s="20">
         <f>SUM(I4:I41)</f>
@@ -54152,25 +54218,25 @@
       </c>
       <c r="K3" s="22">
         <f>E3-I3</f>
-        <v>-137382.71078230441</v>
+        <v>-9.2007823064923286</v>
       </c>
       <c r="L3" s="22">
         <f>G3-J3</f>
-        <v>-167468.56772987545</v>
+        <v>1.6822701320052147</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A4" s="47">
+    <row r="4" spans="1:13">
+      <c r="A4" s="45">
         <f>RA!A8</f>
         <v>42491</v>
       </c>
       <c r="B4" s="12">
         <v>12</v>
       </c>
-      <c r="C4" s="42" t="s">
+      <c r="C4" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="42"/>
+      <c r="D4" s="43"/>
       <c r="E4" s="15">
         <f>VLOOKUP(C4,RA!B8:D35,3,0)</f>
         <v>1384415.1657</v>
@@ -54204,15 +54270,15 @@
         <v>-1.2522219913080335E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A5" s="47"/>
+    <row r="5" spans="1:13">
+      <c r="A5" s="45"/>
       <c r="B5" s="12">
         <v>13</v>
       </c>
-      <c r="C5" s="42" t="s">
+      <c r="C5" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="42"/>
+      <c r="D5" s="43"/>
       <c r="E5" s="15">
         <f>VLOOKUP(C5,RA!B8:D36,3,0)</f>
         <v>131554.82089999999</v>
@@ -54247,15 +54313,15 @@
       </c>
       <c r="M5" s="32"/>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A6" s="47"/>
+    <row r="6" spans="1:13">
+      <c r="A6" s="45"/>
       <c r="B6" s="12">
         <v>14</v>
       </c>
-      <c r="C6" s="42" t="s">
+      <c r="C6" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="42"/>
+      <c r="D6" s="43"/>
       <c r="E6" s="15">
         <f>VLOOKUP(C6,RA!B10:D37,3,0)</f>
         <v>291834.40409999999</v>
@@ -54290,15 +54356,15 @@
       </c>
       <c r="M6" s="32"/>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A7" s="47"/>
+    <row r="7" spans="1:13">
+      <c r="A7" s="45"/>
       <c r="B7" s="12">
         <v>15</v>
       </c>
-      <c r="C7" s="42" t="s">
+      <c r="C7" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="42"/>
+      <c r="D7" s="43"/>
       <c r="E7" s="15">
         <f>VLOOKUP(C7,RA!B10:D38,3,0)</f>
         <v>100082.7199</v>
@@ -54333,15 +54399,15 @@
       </c>
       <c r="M7" s="32"/>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A8" s="47"/>
+    <row r="8" spans="1:13">
+      <c r="A8" s="45"/>
       <c r="B8" s="12">
         <v>16</v>
       </c>
-      <c r="C8" s="42" t="s">
+      <c r="C8" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="42"/>
+      <c r="D8" s="43"/>
       <c r="E8" s="15">
         <f>VLOOKUP(C8,RA!B12:D38,3,0)</f>
         <v>370762.66220000002</v>
@@ -54376,15 +54442,15 @@
       </c>
       <c r="M8" s="32"/>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A9" s="47"/>
+    <row r="9" spans="1:13">
+      <c r="A9" s="45"/>
       <c r="B9" s="12">
         <v>17</v>
       </c>
-      <c r="C9" s="42" t="s">
+      <c r="C9" s="43" t="s">
         <v>11</v>
       </c>
-      <c r="D9" s="42"/>
+      <c r="D9" s="43"/>
       <c r="E9" s="15">
         <f>VLOOKUP(C9,RA!B12:D39,3,0)</f>
         <v>406740.69130000001</v>
@@ -54419,15 +54485,15 @@
       </c>
       <c r="M9" s="32"/>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A10" s="47"/>
+    <row r="10" spans="1:13">
+      <c r="A10" s="45"/>
       <c r="B10" s="12">
         <v>18</v>
       </c>
-      <c r="C10" s="42" t="s">
+      <c r="C10" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="42"/>
+      <c r="D10" s="43"/>
       <c r="E10" s="15">
         <f>VLOOKUP(C10,RA!B14:D40,3,0)</f>
         <v>340769.00919999997</v>
@@ -54462,15 +54528,15 @@
       </c>
       <c r="M10" s="32"/>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A11" s="47"/>
+    <row r="11" spans="1:13">
+      <c r="A11" s="45"/>
       <c r="B11" s="12">
         <v>19</v>
       </c>
-      <c r="C11" s="42" t="s">
+      <c r="C11" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="D11" s="42"/>
+      <c r="D11" s="43"/>
       <c r="E11" s="15">
         <f>VLOOKUP(C11,RA!B14:D41,3,0)</f>
         <v>310423.92920000001</v>
@@ -54505,15 +54571,15 @@
       </c>
       <c r="M11" s="32"/>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A12" s="47"/>
+    <row r="12" spans="1:13">
+      <c r="A12" s="45"/>
       <c r="B12" s="12">
         <v>21</v>
       </c>
-      <c r="C12" s="42" t="s">
+      <c r="C12" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="D12" s="42"/>
+      <c r="D12" s="43"/>
       <c r="E12" s="15">
         <f>VLOOKUP(C12,RA!B16:D42,3,0)</f>
         <v>3056697.5159999998</v>
@@ -54548,15 +54614,15 @@
       </c>
       <c r="M12" s="32"/>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A13" s="47"/>
+    <row r="13" spans="1:13">
+      <c r="A13" s="45"/>
       <c r="B13" s="12">
         <v>22</v>
       </c>
-      <c r="C13" s="42" t="s">
+      <c r="C13" s="43" t="s">
         <v>15</v>
       </c>
-      <c r="D13" s="42"/>
+      <c r="D13" s="43"/>
       <c r="E13" s="15">
         <f>VLOOKUP(C13,RA!B16:D43,3,0)</f>
         <v>5866774.4649999999</v>
@@ -54591,15 +54657,15 @@
       </c>
       <c r="M13" s="32"/>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A14" s="47"/>
+    <row r="14" spans="1:13">
+      <c r="A14" s="45"/>
       <c r="B14" s="12">
         <v>23</v>
       </c>
-      <c r="C14" s="42" t="s">
+      <c r="C14" s="43" t="s">
         <v>16</v>
       </c>
-      <c r="D14" s="42"/>
+      <c r="D14" s="43"/>
       <c r="E14" s="15">
         <f>VLOOKUP(C14,RA!B18:D43,3,0)</f>
         <v>2909379.2426</v>
@@ -54634,15 +54700,15 @@
       </c>
       <c r="M14" s="32"/>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A15" s="47"/>
+    <row r="15" spans="1:13">
+      <c r="A15" s="45"/>
       <c r="B15" s="12">
         <v>24</v>
       </c>
-      <c r="C15" s="42" t="s">
+      <c r="C15" s="43" t="s">
         <v>17</v>
       </c>
-      <c r="D15" s="42"/>
+      <c r="D15" s="43"/>
       <c r="E15" s="15">
         <f>VLOOKUP(C15,RA!B18:D44,3,0)</f>
         <v>1216983.0852999999</v>
@@ -54677,15 +54743,15 @@
       </c>
       <c r="M15" s="32"/>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A16" s="47"/>
+    <row r="16" spans="1:13">
+      <c r="A16" s="45"/>
       <c r="B16" s="12">
         <v>25</v>
       </c>
-      <c r="C16" s="42" t="s">
+      <c r="C16" s="43" t="s">
         <v>18</v>
       </c>
-      <c r="D16" s="42"/>
+      <c r="D16" s="43"/>
       <c r="E16" s="15">
         <f>VLOOKUP(C16,RA!B20:D45,3,0)</f>
         <v>4200533.4813999999</v>
@@ -54720,15 +54786,15 @@
       </c>
       <c r="M16" s="32"/>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A17" s="47"/>
+    <row r="17" spans="1:13">
+      <c r="A17" s="45"/>
       <c r="B17" s="12">
         <v>26</v>
       </c>
-      <c r="C17" s="42" t="s">
+      <c r="C17" s="43" t="s">
         <v>19</v>
       </c>
-      <c r="D17" s="42"/>
+      <c r="D17" s="43"/>
       <c r="E17" s="15">
         <f>VLOOKUP(C17,RA!B20:D46,3,0)</f>
         <v>512621.47230000002</v>
@@ -54763,15 +54829,15 @@
       </c>
       <c r="M17" s="32"/>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A18" s="47"/>
+    <row r="18" spans="1:13">
+      <c r="A18" s="45"/>
       <c r="B18" s="12">
         <v>27</v>
       </c>
-      <c r="C18" s="42" t="s">
+      <c r="C18" s="43" t="s">
         <v>20</v>
       </c>
-      <c r="D18" s="42"/>
+      <c r="D18" s="43"/>
       <c r="E18" s="15">
         <f>VLOOKUP(C18,RA!B22:D47,3,0)</f>
         <v>2289960.5452000001</v>
@@ -54806,15 +54872,15 @@
       </c>
       <c r="M18" s="32"/>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A19" s="47"/>
+    <row r="19" spans="1:13">
+      <c r="A19" s="45"/>
       <c r="B19" s="12">
         <v>29</v>
       </c>
-      <c r="C19" s="42" t="s">
+      <c r="C19" s="43" t="s">
         <v>21</v>
       </c>
-      <c r="D19" s="42"/>
+      <c r="D19" s="43"/>
       <c r="E19" s="15">
         <f>VLOOKUP(C19,RA!B22:D48,3,0)</f>
         <v>7917581.3940000003</v>
@@ -54849,15 +54915,15 @@
       </c>
       <c r="M19" s="32"/>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A20" s="47"/>
+    <row r="20" spans="1:13">
+      <c r="A20" s="45"/>
       <c r="B20" s="12">
         <v>31</v>
       </c>
-      <c r="C20" s="42" t="s">
+      <c r="C20" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="D20" s="42"/>
+      <c r="D20" s="43"/>
       <c r="E20" s="15">
         <f>VLOOKUP(C20,RA!B24:D49,3,0)</f>
         <v>428395.38429999998</v>
@@ -54892,15 +54958,15 @@
       </c>
       <c r="M20" s="32"/>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A21" s="47"/>
+    <row r="21" spans="1:13">
+      <c r="A21" s="45"/>
       <c r="B21" s="12">
         <v>32</v>
       </c>
-      <c r="C21" s="42" t="s">
+      <c r="C21" s="43" t="s">
         <v>23</v>
       </c>
-      <c r="D21" s="42"/>
+      <c r="D21" s="43"/>
       <c r="E21" s="15">
         <f>VLOOKUP(C21,RA!B24:D50,3,0)</f>
         <v>526668.83019999997</v>
@@ -54935,15 +55001,15 @@
       </c>
       <c r="M21" s="32"/>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A22" s="47"/>
+    <row r="22" spans="1:13">
+      <c r="A22" s="45"/>
       <c r="B22" s="12">
         <v>33</v>
       </c>
-      <c r="C22" s="42" t="s">
+      <c r="C22" s="43" t="s">
         <v>24</v>
       </c>
-      <c r="D22" s="42"/>
+      <c r="D22" s="43"/>
       <c r="E22" s="15">
         <f>VLOOKUP(C22,RA!B26:D51,3,0)</f>
         <v>872993.22050000005</v>
@@ -54978,15 +55044,15 @@
       </c>
       <c r="M22" s="32"/>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A23" s="47"/>
+    <row r="23" spans="1:13">
+      <c r="A23" s="45"/>
       <c r="B23" s="12">
         <v>34</v>
       </c>
-      <c r="C23" s="42" t="s">
+      <c r="C23" s="43" t="s">
         <v>25</v>
       </c>
-      <c r="D23" s="42"/>
+      <c r="D23" s="43"/>
       <c r="E23" s="15">
         <f>VLOOKUP(C23,RA!B26:D52,3,0)</f>
         <v>347380.03399999999</v>
@@ -55021,15 +55087,15 @@
       </c>
       <c r="M23" s="32"/>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A24" s="47"/>
+    <row r="24" spans="1:13">
+      <c r="A24" s="45"/>
       <c r="B24" s="12">
         <v>35</v>
       </c>
-      <c r="C24" s="42" t="s">
+      <c r="C24" s="43" t="s">
         <v>26</v>
       </c>
-      <c r="D24" s="42"/>
+      <c r="D24" s="43"/>
       <c r="E24" s="15">
         <f>VLOOKUP(C24,RA!B28:D53,3,0)</f>
         <v>1537034.5966</v>
@@ -55064,15 +55130,15 @@
       </c>
       <c r="M24" s="32"/>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A25" s="47"/>
+    <row r="25" spans="1:13">
+      <c r="A25" s="45"/>
       <c r="B25" s="12">
         <v>36</v>
       </c>
-      <c r="C25" s="42" t="s">
+      <c r="C25" s="43" t="s">
         <v>27</v>
       </c>
-      <c r="D25" s="42"/>
+      <c r="D25" s="43"/>
       <c r="E25" s="15">
         <f>VLOOKUP(C25,RA!B28:D54,3,0)</f>
         <v>1027470.8864</v>
@@ -55107,15 +55173,15 @@
       </c>
       <c r="M25" s="32"/>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A26" s="47"/>
+    <row r="26" spans="1:13">
+      <c r="A26" s="45"/>
       <c r="B26" s="12">
         <v>37</v>
       </c>
-      <c r="C26" s="42" t="s">
+      <c r="C26" s="43" t="s">
         <v>71</v>
       </c>
-      <c r="D26" s="42"/>
+      <c r="D26" s="43"/>
       <c r="E26" s="15">
         <f>VLOOKUP(C26,RA!B30:D55,3,0)</f>
         <v>2749459.9402000001</v>
@@ -55150,15 +55216,15 @@
       </c>
       <c r="M26" s="32"/>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A27" s="47"/>
+    <row r="27" spans="1:13">
+      <c r="A27" s="45"/>
       <c r="B27" s="12">
         <v>38</v>
       </c>
-      <c r="C27" s="42" t="s">
+      <c r="C27" s="43" t="s">
         <v>29</v>
       </c>
-      <c r="D27" s="42"/>
+      <c r="D27" s="43"/>
       <c r="E27" s="15">
         <f>VLOOKUP(C27,RA!B30:D56,3,0)</f>
         <v>10004690.193600001</v>
@@ -55193,15 +55259,15 @@
       </c>
       <c r="M27" s="32"/>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A28" s="47"/>
+    <row r="28" spans="1:13">
+      <c r="A28" s="45"/>
       <c r="B28" s="12">
         <v>39</v>
       </c>
-      <c r="C28" s="42" t="s">
+      <c r="C28" s="43" t="s">
         <v>30</v>
       </c>
-      <c r="D28" s="42"/>
+      <c r="D28" s="43"/>
       <c r="E28" s="15">
         <f>VLOOKUP(C28,RA!B32:D57,3,0)</f>
         <v>144469.24309999999</v>
@@ -55236,15 +55302,15 @@
       </c>
       <c r="M28" s="32"/>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A29" s="47"/>
+    <row r="29" spans="1:13">
+      <c r="A29" s="45"/>
       <c r="B29" s="12">
         <v>40</v>
       </c>
-      <c r="C29" s="42" t="s">
+      <c r="C29" s="43" t="s">
         <v>73</v>
       </c>
-      <c r="D29" s="42"/>
+      <c r="D29" s="43"/>
       <c r="E29" s="15">
         <f>VLOOKUP(C29,RA!B32:D58,3,0)</f>
         <v>0</v>
@@ -55279,15 +55345,15 @@
       </c>
       <c r="M29" s="32"/>
     </row>
-    <row r="30" spans="1:13" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="47"/>
+    <row r="30" spans="1:13" ht="12" thickBot="1">
+      <c r="A30" s="45"/>
       <c r="B30" s="12">
         <v>42</v>
       </c>
-      <c r="C30" s="42" t="s">
+      <c r="C30" s="43" t="s">
         <v>31</v>
       </c>
-      <c r="D30" s="42"/>
+      <c r="D30" s="43"/>
       <c r="E30" s="15">
         <f>VLOOKUP(C30,RA!B34:D60,3,0)</f>
         <v>307647.86599999998</v>
@@ -55322,15 +55388,15 @@
       </c>
       <c r="M30" s="32"/>
     </row>
-    <row r="31" spans="1:13" s="35" customFormat="1" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="47"/>
+    <row r="31" spans="1:13" s="35" customFormat="1" ht="12" thickBot="1">
+      <c r="A31" s="45"/>
       <c r="B31" s="12">
         <v>70</v>
       </c>
-      <c r="C31" s="48" t="s">
+      <c r="C31" s="46" t="s">
         <v>68</v>
       </c>
-      <c r="D31" s="49"/>
+      <c r="D31" s="47"/>
       <c r="E31" s="15">
         <f>VLOOKUP(C31,RA!B34:D61,3,0)</f>
         <v>423059.9</v>
@@ -55364,26 +55430,26 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A32" s="47"/>
+    <row r="32" spans="1:13">
+      <c r="A32" s="45"/>
       <c r="B32" s="12">
         <v>71</v>
       </c>
-      <c r="C32" s="42" t="s">
+      <c r="C32" s="43" t="s">
         <v>35</v>
       </c>
-      <c r="D32" s="42"/>
+      <c r="D32" s="43"/>
       <c r="E32" s="15">
         <f>VLOOKUP(C32,RA!B34:D61,3,0)</f>
-        <v>2042434.91</v>
+        <v>2065951.14</v>
       </c>
       <c r="F32" s="25">
         <f>VLOOKUP(C32,RA!B34:I65,8,0)</f>
-        <v>-358846.13</v>
+        <v>-368222.21</v>
       </c>
       <c r="G32" s="16">
         <f t="shared" si="0"/>
-        <v>2401281.04</v>
+        <v>2434173.35</v>
       </c>
       <c r="H32" s="27">
         <f>RA!J34</f>
@@ -55399,34 +55465,34 @@
       </c>
       <c r="K32" s="22">
         <f t="shared" si="1"/>
-        <v>-23516.229999999981</v>
+        <v>0</v>
       </c>
       <c r="L32" s="22">
         <f t="shared" si="2"/>
-        <v>-32892.310000000056</v>
+        <v>0</v>
       </c>
       <c r="M32" s="32"/>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A33" s="47"/>
+    <row r="33" spans="1:13">
+      <c r="A33" s="45"/>
       <c r="B33" s="12">
         <v>72</v>
       </c>
-      <c r="C33" s="42" t="s">
+      <c r="C33" s="43" t="s">
         <v>36</v>
       </c>
-      <c r="D33" s="42"/>
+      <c r="D33" s="43"/>
       <c r="E33" s="15">
         <f>VLOOKUP(C33,RA!B34:D62,3,0)</f>
-        <v>2343676.92</v>
+        <v>2405863.23</v>
       </c>
       <c r="F33" s="25">
         <f>VLOOKUP(C33,RA!B34:I66,8,0)</f>
-        <v>-297388.88</v>
+        <v>-304878.67</v>
       </c>
       <c r="G33" s="16">
         <f t="shared" si="0"/>
-        <v>2641065.7999999998</v>
+        <v>2710741.9</v>
       </c>
       <c r="H33" s="27">
         <f>RA!J35</f>
@@ -55442,34 +55508,34 @@
       </c>
       <c r="K33" s="22">
         <f t="shared" si="1"/>
-        <v>-62186.310000000056</v>
+        <v>0</v>
       </c>
       <c r="L33" s="22">
         <f t="shared" si="2"/>
-        <v>-69676.100000000093</v>
+        <v>0</v>
       </c>
       <c r="M33" s="32"/>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A34" s="47"/>
+    <row r="34" spans="1:13">
+      <c r="A34" s="45"/>
       <c r="B34" s="12">
         <v>73</v>
       </c>
-      <c r="C34" s="42" t="s">
+      <c r="C34" s="43" t="s">
         <v>37</v>
       </c>
-      <c r="D34" s="42"/>
+      <c r="D34" s="43"/>
       <c r="E34" s="15">
         <f>VLOOKUP(C34,RA!B34:D63,3,0)</f>
-        <v>1612111.89</v>
+        <v>1635567.47</v>
       </c>
       <c r="F34" s="25">
         <f>VLOOKUP(C34,RA!B34:I67,8,0)</f>
-        <v>-374167.21</v>
+        <v>-377958.65</v>
       </c>
       <c r="G34" s="16">
         <f t="shared" si="0"/>
-        <v>1986279.0999999999</v>
+        <v>2013526.12</v>
       </c>
       <c r="H34" s="27">
         <f>RA!J34</f>
@@ -55485,23 +55551,23 @@
       </c>
       <c r="K34" s="22">
         <f t="shared" si="1"/>
-        <v>-23455.580000000075</v>
+        <v>0</v>
       </c>
       <c r="L34" s="22">
         <f t="shared" si="2"/>
-        <v>-27247.020000000251</v>
+        <v>0</v>
       </c>
       <c r="M34" s="32"/>
     </row>
-    <row r="35" spans="1:13" s="35" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="47"/>
+    <row r="35" spans="1:13" s="35" customFormat="1">
+      <c r="A35" s="45"/>
       <c r="B35" s="12">
         <v>74</v>
       </c>
-      <c r="C35" s="42" t="s">
+      <c r="C35" s="43" t="s">
         <v>69</v>
       </c>
-      <c r="D35" s="42"/>
+      <c r="D35" s="43"/>
       <c r="E35" s="15">
         <f>VLOOKUP(C35,RA!B35:D64,3,0)</f>
         <v>0.18</v>
@@ -55535,15 +55601,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="47"/>
+    <row r="36" spans="1:13" ht="11.25" customHeight="1">
+      <c r="A36" s="45"/>
       <c r="B36" s="12">
         <v>75</v>
       </c>
-      <c r="C36" s="42" t="s">
+      <c r="C36" s="43" t="s">
         <v>32</v>
       </c>
-      <c r="D36" s="42"/>
+      <c r="D36" s="43"/>
       <c r="E36" s="15">
         <f>VLOOKUP(C36,RA!B8:D64,3,0)</f>
         <v>162905.55549999999</v>
@@ -55578,15 +55644,15 @@
       </c>
       <c r="M36" s="32"/>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A37" s="47"/>
+    <row r="37" spans="1:13">
+      <c r="A37" s="45"/>
       <c r="B37" s="12">
         <v>76</v>
       </c>
-      <c r="C37" s="42" t="s">
+      <c r="C37" s="43" t="s">
         <v>33</v>
       </c>
-      <c r="D37" s="42"/>
+      <c r="D37" s="43"/>
       <c r="E37" s="15">
         <f>VLOOKUP(C37,RA!B8:D65,3,0)</f>
         <v>754081.5797</v>
@@ -55621,30 +55687,30 @@
       </c>
       <c r="M37" s="32"/>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A38" s="47"/>
+    <row r="38" spans="1:13">
+      <c r="A38" s="45"/>
       <c r="B38" s="12">
         <v>77</v>
       </c>
-      <c r="C38" s="42" t="s">
+      <c r="C38" s="43" t="s">
         <v>38</v>
       </c>
-      <c r="D38" s="42"/>
+      <c r="D38" s="43"/>
       <c r="E38" s="15">
         <f>VLOOKUP(C38,RA!B9:D66,3,0)</f>
-        <v>1062793.32</v>
+        <v>1090240.33</v>
       </c>
       <c r="F38" s="25">
         <f>VLOOKUP(C38,RA!B9:I70,8,0)</f>
-        <v>-225822.98</v>
+        <v>-235369.99</v>
       </c>
       <c r="G38" s="16">
         <f t="shared" si="0"/>
-        <v>1288616.3</v>
+        <v>1325610.32</v>
       </c>
       <c r="H38" s="27">
         <f>RA!J37</f>
-        <v>-17.569525875368001</v>
+        <v>-17.823374564414902</v>
       </c>
       <c r="I38" s="20">
         <f>VLOOKUP(B38,RMS!B:D,3,FALSE)</f>
@@ -55656,38 +55722,38 @@
       </c>
       <c r="K38" s="22">
         <f t="shared" si="1"/>
-        <v>-27447.010000000009</v>
+        <v>0</v>
       </c>
       <c r="L38" s="22">
         <f t="shared" si="2"/>
-        <v>-36994.020000000019</v>
+        <v>0</v>
       </c>
       <c r="M38" s="32"/>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A39" s="47"/>
+    <row r="39" spans="1:13">
+      <c r="A39" s="45"/>
       <c r="B39" s="12">
         <v>78</v>
       </c>
-      <c r="C39" s="42" t="s">
+      <c r="C39" s="43" t="s">
         <v>39</v>
       </c>
-      <c r="D39" s="42"/>
+      <c r="D39" s="43"/>
       <c r="E39" s="15">
         <f>VLOOKUP(C39,RA!B10:D67,3,0)</f>
-        <v>508738.58</v>
+        <v>509506.96</v>
       </c>
       <c r="F39" s="25">
         <f>VLOOKUP(C39,RA!B10:I71,8,0)</f>
-        <v>61313.35</v>
+        <v>61420.93</v>
       </c>
       <c r="G39" s="16">
         <f t="shared" si="0"/>
-        <v>447425.23000000004</v>
+        <v>448086.03</v>
       </c>
       <c r="H39" s="27">
         <f>RA!J38</f>
-        <v>-12.688987866126199</v>
+        <v>-12.672319282256099</v>
       </c>
       <c r="I39" s="20">
         <f>VLOOKUP(B39,RMS!B:D,3,FALSE)</f>
@@ -55699,23 +55765,23 @@
       </c>
       <c r="K39" s="22">
         <f t="shared" si="1"/>
-        <v>-768.38000000000466</v>
+        <v>0</v>
       </c>
       <c r="L39" s="22">
         <f t="shared" si="2"/>
-        <v>-660.79999999998836</v>
+        <v>0</v>
       </c>
       <c r="M39" s="32"/>
     </row>
-    <row r="40" spans="1:13" s="36" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="47"/>
+    <row r="40" spans="1:13" s="36" customFormat="1">
+      <c r="A40" s="45"/>
       <c r="B40" s="12">
         <v>9101</v>
       </c>
-      <c r="C40" s="43" t="s">
+      <c r="C40" s="48" t="s">
         <v>75</v>
       </c>
-      <c r="D40" s="44"/>
+      <c r="D40" s="49"/>
       <c r="E40" s="15">
         <f>VLOOKUP(C40,RA!B11:D68,3,0)</f>
         <v>0</v>
@@ -55730,7 +55796,7 @@
       </c>
       <c r="H40" s="27">
         <f>RA!J39</f>
-        <v>-23.209754380013901</v>
+        <v>-23.108716511707101</v>
       </c>
       <c r="I40" s="20">
         <f>VLOOKUP(B40,RMS!B:D,3,FALSE)</f>
@@ -55749,15 +55815,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A41" s="47"/>
+    <row r="41" spans="1:13">
+      <c r="A41" s="45"/>
       <c r="B41" s="12">
         <v>99</v>
       </c>
-      <c r="C41" s="42" t="s">
+      <c r="C41" s="43" t="s">
         <v>34</v>
       </c>
-      <c r="D41" s="42"/>
+      <c r="D41" s="43"/>
       <c r="E41" s="15">
         <f>VLOOKUP(C41,RA!B8:D68,3,0)</f>
         <v>23151.8531</v>
@@ -55772,7 +55838,7 @@
       </c>
       <c r="H41" s="27">
         <f>RA!J39</f>
-        <v>-23.209754380013901</v>
+        <v>-23.108716511707101</v>
       </c>
       <c r="I41" s="20">
         <f>VLOOKUP(B41,RMS!B:D,3,FALSE)</f>
@@ -55794,6 +55860,31 @@
     </row>
   </sheetData>
   <mergeCells count="41">
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C40:D40"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="C5:D5"/>
@@ -55810,31 +55901,6 @@
     <mergeCell ref="C35:D35"/>
     <mergeCell ref="C29:D29"/>
     <mergeCell ref="C27:D27"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="C41:D41"/>
-    <mergeCell ref="C39:D39"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="C40:D40"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C21:D21"/>
   </mergeCells>
   <phoneticPr fontId="36" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -55843,2581 +55909,2583 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:W46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:W46"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="11.25"/>
   <cols>
-    <col min="1" max="1" width="8.85546875" style="41" customWidth="1"/>
+    <col min="1" max="1" width="8" style="41" customWidth="1"/>
     <col min="2" max="3" width="9.140625" style="41"/>
     <col min="4" max="5" width="13.140625" style="41" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="14" style="41" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9.140625" style="41"/>
     <col min="9" max="9" width="14" style="41" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.140625" style="41"/>
+    <col min="10" max="10" width="11.85546875" style="41" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="14" style="41" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="12" style="41" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="14" style="41" bestFit="1" customWidth="1"/>
     <col min="14" max="15" width="15.85546875" style="41" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="10.5703125" style="41" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="12" style="41" bestFit="1" customWidth="1"/>
+    <col min="16" max="18" width="12" style="41" bestFit="1" customWidth="1"/>
     <col min="19" max="20" width="9.140625" style="41"/>
     <col min="21" max="21" width="12" style="41" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="41.140625" style="41" bestFit="1" customWidth="1"/>
     <col min="23" max="16384" width="9.140625" style="41"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A1" s="52"/>
-      <c r="B1" s="52"/>
-      <c r="C1" s="52"/>
-      <c r="D1" s="52"/>
-      <c r="E1" s="52"/>
-      <c r="F1" s="52"/>
-      <c r="G1" s="52"/>
-      <c r="H1" s="52"/>
-      <c r="I1" s="52"/>
-      <c r="J1" s="52"/>
-      <c r="K1" s="52"/>
-      <c r="L1" s="52"/>
-      <c r="M1" s="52"/>
-      <c r="N1" s="52"/>
-      <c r="O1" s="52"/>
-      <c r="P1" s="52"/>
-      <c r="Q1" s="52"/>
-      <c r="R1" s="52"/>
-      <c r="S1" s="52"/>
-      <c r="T1" s="52"/>
-      <c r="U1" s="52"/>
-      <c r="V1" s="64" t="s">
+    <row r="1" spans="1:23" ht="12.75">
+      <c r="A1" s="50"/>
+      <c r="B1" s="50"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="50"/>
+      <c r="F1" s="50"/>
+      <c r="G1" s="50"/>
+      <c r="H1" s="50"/>
+      <c r="I1" s="50"/>
+      <c r="J1" s="50"/>
+      <c r="K1" s="50"/>
+      <c r="L1" s="50"/>
+      <c r="M1" s="50"/>
+      <c r="N1" s="50"/>
+      <c r="O1" s="50"/>
+      <c r="P1" s="50"/>
+      <c r="Q1" s="50"/>
+      <c r="R1" s="50"/>
+      <c r="S1" s="50"/>
+      <c r="T1" s="50"/>
+      <c r="U1" s="50"/>
+      <c r="V1" s="51" t="s">
         <v>45</v>
       </c>
-      <c r="W1" s="61"/>
+      <c r="W1" s="52"/>
     </row>
-    <row r="2" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A2" s="52"/>
-      <c r="B2" s="52"/>
-      <c r="C2" s="52"/>
-      <c r="D2" s="52"/>
-      <c r="E2" s="52"/>
-      <c r="F2" s="52"/>
-      <c r="G2" s="52"/>
-      <c r="H2" s="52"/>
-      <c r="I2" s="52"/>
-      <c r="J2" s="52"/>
-      <c r="K2" s="52"/>
-      <c r="L2" s="52"/>
-      <c r="M2" s="52"/>
-      <c r="N2" s="52"/>
-      <c r="O2" s="52"/>
-      <c r="P2" s="52"/>
-      <c r="Q2" s="52"/>
-      <c r="R2" s="52"/>
-      <c r="S2" s="52"/>
-      <c r="T2" s="52"/>
-      <c r="U2" s="52"/>
-      <c r="V2" s="64"/>
-      <c r="W2" s="61"/>
+    <row r="2" spans="1:23" ht="12.75">
+      <c r="A2" s="50"/>
+      <c r="B2" s="50"/>
+      <c r="C2" s="50"/>
+      <c r="D2" s="50"/>
+      <c r="E2" s="50"/>
+      <c r="F2" s="50"/>
+      <c r="G2" s="50"/>
+      <c r="H2" s="50"/>
+      <c r="I2" s="50"/>
+      <c r="J2" s="50"/>
+      <c r="K2" s="50"/>
+      <c r="L2" s="50"/>
+      <c r="M2" s="50"/>
+      <c r="N2" s="50"/>
+      <c r="O2" s="50"/>
+      <c r="P2" s="50"/>
+      <c r="Q2" s="50"/>
+      <c r="R2" s="50"/>
+      <c r="S2" s="50"/>
+      <c r="T2" s="50"/>
+      <c r="U2" s="50"/>
+      <c r="V2" s="51"/>
+      <c r="W2" s="52"/>
     </row>
-    <row r="3" spans="1:23" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="52"/>
-      <c r="B3" s="52"/>
-      <c r="C3" s="52"/>
-      <c r="D3" s="52"/>
-      <c r="E3" s="52"/>
-      <c r="F3" s="52"/>
-      <c r="G3" s="52"/>
-      <c r="H3" s="52"/>
-      <c r="I3" s="52"/>
-      <c r="J3" s="52"/>
-      <c r="K3" s="52"/>
-      <c r="L3" s="52"/>
-      <c r="M3" s="52"/>
-      <c r="N3" s="52"/>
-      <c r="O3" s="52"/>
-      <c r="P3" s="52"/>
-      <c r="Q3" s="52"/>
-      <c r="R3" s="52"/>
-      <c r="S3" s="52"/>
-      <c r="T3" s="52"/>
-      <c r="U3" s="52"/>
-      <c r="V3" s="65" t="s">
+    <row r="3" spans="1:23" ht="23.25" thickBot="1">
+      <c r="A3" s="50"/>
+      <c r="B3" s="50"/>
+      <c r="C3" s="50"/>
+      <c r="D3" s="50"/>
+      <c r="E3" s="50"/>
+      <c r="F3" s="50"/>
+      <c r="G3" s="50"/>
+      <c r="H3" s="50"/>
+      <c r="I3" s="50"/>
+      <c r="J3" s="50"/>
+      <c r="K3" s="50"/>
+      <c r="L3" s="50"/>
+      <c r="M3" s="50"/>
+      <c r="N3" s="50"/>
+      <c r="O3" s="50"/>
+      <c r="P3" s="50"/>
+      <c r="Q3" s="50"/>
+      <c r="R3" s="50"/>
+      <c r="S3" s="50"/>
+      <c r="T3" s="50"/>
+      <c r="U3" s="50"/>
+      <c r="V3" s="53" t="s">
         <v>46</v>
       </c>
-      <c r="W3" s="61"/>
+      <c r="W3" s="52"/>
     </row>
-    <row r="4" spans="1:23" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="50"/>
-      <c r="B4" s="50"/>
-      <c r="C4" s="50"/>
-      <c r="D4" s="50"/>
-      <c r="E4" s="50"/>
-      <c r="F4" s="50"/>
-      <c r="G4" s="50"/>
-      <c r="H4" s="50"/>
-      <c r="I4" s="50"/>
-      <c r="J4" s="50"/>
-      <c r="K4" s="50"/>
-      <c r="L4" s="50"/>
-      <c r="M4" s="50"/>
-      <c r="N4" s="50"/>
-      <c r="O4" s="50"/>
-      <c r="P4" s="50"/>
-      <c r="Q4" s="50"/>
-      <c r="R4" s="50"/>
-      <c r="S4" s="50"/>
-      <c r="T4" s="50"/>
-      <c r="U4" s="50"/>
-      <c r="V4" s="63"/>
-      <c r="W4" s="61"/>
+    <row r="4" spans="1:23" ht="12.75" thickTop="1" thickBot="1">
+      <c r="A4" s="54"/>
+      <c r="B4" s="54"/>
+      <c r="C4" s="54"/>
+      <c r="D4" s="54"/>
+      <c r="E4" s="54"/>
+      <c r="F4" s="54"/>
+      <c r="G4" s="54"/>
+      <c r="H4" s="54"/>
+      <c r="I4" s="54"/>
+      <c r="J4" s="54"/>
+      <c r="K4" s="54"/>
+      <c r="L4" s="54"/>
+      <c r="M4" s="54"/>
+      <c r="N4" s="54"/>
+      <c r="O4" s="54"/>
+      <c r="P4" s="54"/>
+      <c r="Q4" s="54"/>
+      <c r="R4" s="54"/>
+      <c r="S4" s="54"/>
+      <c r="T4" s="54"/>
+      <c r="U4" s="54"/>
+      <c r="W4" s="52"/>
     </row>
-    <row r="5" spans="1:23" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="66"/>
-      <c r="B5" s="67"/>
-      <c r="C5" s="68"/>
-      <c r="D5" s="69" t="s">
+    <row r="5" spans="1:23" ht="22.5" thickTop="1" thickBot="1">
+      <c r="A5" s="55"/>
+      <c r="B5" s="56"/>
+      <c r="C5" s="57"/>
+      <c r="D5" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="E5" s="69" t="s">
+      <c r="E5" s="58" t="s">
         <v>58</v>
       </c>
-      <c r="F5" s="69" t="s">
+      <c r="F5" s="58" t="s">
         <v>59</v>
       </c>
-      <c r="G5" s="69" t="s">
+      <c r="G5" s="58" t="s">
         <v>47</v>
       </c>
-      <c r="H5" s="69" t="s">
+      <c r="H5" s="58" t="s">
         <v>48</v>
       </c>
-      <c r="I5" s="69" t="s">
+      <c r="I5" s="58" t="s">
         <v>1</v>
       </c>
-      <c r="J5" s="69" t="s">
+      <c r="J5" s="58" t="s">
         <v>2</v>
       </c>
-      <c r="K5" s="69" t="s">
+      <c r="K5" s="58" t="s">
         <v>49</v>
       </c>
-      <c r="L5" s="69" t="s">
+      <c r="L5" s="58" t="s">
         <v>50</v>
       </c>
-      <c r="M5" s="69" t="s">
+      <c r="M5" s="58" t="s">
         <v>51</v>
       </c>
-      <c r="N5" s="69" t="s">
+      <c r="N5" s="58" t="s">
         <v>52</v>
       </c>
-      <c r="O5" s="69" t="s">
+      <c r="O5" s="58" t="s">
         <v>53</v>
       </c>
-      <c r="P5" s="69" t="s">
+      <c r="P5" s="58" t="s">
         <v>60</v>
       </c>
-      <c r="Q5" s="69" t="s">
+      <c r="Q5" s="58" t="s">
         <v>61</v>
       </c>
-      <c r="R5" s="69" t="s">
+      <c r="R5" s="58" t="s">
         <v>54</v>
       </c>
-      <c r="S5" s="69" t="s">
+      <c r="S5" s="58" t="s">
         <v>55</v>
       </c>
-      <c r="T5" s="69" t="s">
+      <c r="T5" s="58" t="s">
         <v>56</v>
       </c>
-      <c r="U5" s="70" t="s">
+      <c r="U5" s="59" t="s">
         <v>57</v>
       </c>
-      <c r="V5" s="63"/>
-      <c r="W5" s="63"/>
     </row>
-    <row r="6" spans="1:23" ht="14.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="71" t="s">
+    <row r="6" spans="1:23" ht="12" thickBot="1">
+      <c r="A6" s="60" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="60" t="s">
+      <c r="B6" s="61" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="59"/>
-      <c r="D6" s="71"/>
-      <c r="E6" s="71"/>
-      <c r="F6" s="71"/>
-      <c r="G6" s="71"/>
-      <c r="H6" s="71"/>
-      <c r="I6" s="71"/>
-      <c r="J6" s="71"/>
-      <c r="K6" s="71"/>
-      <c r="L6" s="71"/>
-      <c r="M6" s="71"/>
-      <c r="N6" s="71"/>
-      <c r="O6" s="71"/>
-      <c r="P6" s="71"/>
-      <c r="Q6" s="71"/>
-      <c r="R6" s="71"/>
-      <c r="S6" s="71"/>
-      <c r="T6" s="71"/>
-      <c r="U6" s="72"/>
-      <c r="V6" s="63"/>
-      <c r="W6" s="63"/>
+      <c r="C6" s="62"/>
+      <c r="D6" s="60"/>
+      <c r="E6" s="60"/>
+      <c r="F6" s="60"/>
+      <c r="G6" s="60"/>
+      <c r="H6" s="60"/>
+      <c r="I6" s="60"/>
+      <c r="J6" s="60"/>
+      <c r="K6" s="60"/>
+      <c r="L6" s="60"/>
+      <c r="M6" s="60"/>
+      <c r="N6" s="60"/>
+      <c r="O6" s="60"/>
+      <c r="P6" s="60"/>
+      <c r="Q6" s="60"/>
+      <c r="R6" s="60"/>
+      <c r="S6" s="60"/>
+      <c r="T6" s="60"/>
+      <c r="U6" s="63"/>
     </row>
-    <row r="7" spans="1:23" ht="14.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="58" t="s">
+    <row r="7" spans="1:23" ht="12" thickBot="1">
+      <c r="A7" s="64" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="57"/>
-      <c r="C7" s="56"/>
-      <c r="D7" s="73">
-        <v>58193375.710600004</v>
-      </c>
-      <c r="E7" s="73">
+      <c r="B7" s="65"/>
+      <c r="C7" s="66"/>
+      <c r="D7" s="67">
+        <v>58330749.220600002</v>
+      </c>
+      <c r="E7" s="67">
         <v>60030888.990199998</v>
       </c>
-      <c r="F7" s="74">
-        <v>96.939053693008006</v>
-      </c>
-      <c r="G7" s="73">
+      <c r="F7" s="68">
+        <v>97.167891733408197</v>
+      </c>
+      <c r="G7" s="67">
         <v>61493947.160700001</v>
       </c>
-      <c r="H7" s="74">
-        <v>-5.36731109726089</v>
-      </c>
-      <c r="I7" s="73">
-        <v>-1220905.4486</v>
-      </c>
-      <c r="J7" s="74">
-        <v>-2.0980144796405198</v>
-      </c>
-      <c r="K7" s="73">
+      <c r="H7" s="68">
+        <v>-5.1439175498585703</v>
+      </c>
+      <c r="I7" s="67">
+        <v>-1251002.1886</v>
+      </c>
+      <c r="J7" s="68">
+        <v>-2.1446701873635399</v>
+      </c>
+      <c r="K7" s="67">
         <v>-587993.97389999998</v>
       </c>
-      <c r="L7" s="74">
+      <c r="L7" s="68">
         <v>-0.95618187000326405</v>
       </c>
-      <c r="M7" s="74">
-        <v>1.07639109037474</v>
-      </c>
-      <c r="N7" s="73">
-        <v>58193375.710600004</v>
-      </c>
-      <c r="O7" s="73">
-        <v>2913322443.1357002</v>
-      </c>
-      <c r="P7" s="73">
+      <c r="M7" s="68">
+        <v>1.12757654692012</v>
+      </c>
+      <c r="N7" s="67">
+        <v>58330749.220600002</v>
+      </c>
+      <c r="O7" s="67">
+        <v>2913705422.6856999</v>
+      </c>
+      <c r="P7" s="67">
         <v>1484054</v>
       </c>
-      <c r="Q7" s="73">
+      <c r="Q7" s="67">
         <v>1214353</v>
       </c>
-      <c r="R7" s="74">
+      <c r="R7" s="68">
         <v>22.209439923975999</v>
       </c>
-      <c r="S7" s="73">
-        <v>39.212438166401</v>
-      </c>
-      <c r="T7" s="73">
-        <v>26.425000563262898</v>
-      </c>
-      <c r="U7" s="75">
-        <v>32.610666923779597</v>
-      </c>
-      <c r="V7" s="63"/>
-      <c r="W7" s="63"/>
+      <c r="S7" s="67">
+        <v>39.305004548756301</v>
+      </c>
+      <c r="T7" s="67">
+        <v>26.4801803585942</v>
+      </c>
+      <c r="U7" s="69">
+        <v>32.628985385953499</v>
+      </c>
     </row>
-    <row r="8" spans="1:23" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="53">
+    <row r="8" spans="1:23" ht="12" thickBot="1">
+      <c r="A8" s="70">
         <v>42491</v>
       </c>
-      <c r="B8" s="62" t="s">
+      <c r="B8" s="46" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="51"/>
-      <c r="D8" s="76">
+      <c r="C8" s="47"/>
+      <c r="D8" s="71">
         <v>1384415.1657</v>
       </c>
-      <c r="E8" s="76">
+      <c r="E8" s="71">
         <v>1305221.1268</v>
       </c>
-      <c r="F8" s="77">
+      <c r="F8" s="72">
         <v>106.06748061871799</v>
       </c>
-      <c r="G8" s="76">
+      <c r="G8" s="71">
         <v>964530.81350000005</v>
       </c>
-      <c r="H8" s="77">
+      <c r="H8" s="72">
         <v>43.532497492367597</v>
       </c>
-      <c r="I8" s="76">
+      <c r="I8" s="71">
         <v>-45579.262699999999</v>
       </c>
-      <c r="J8" s="77">
+      <c r="J8" s="72">
         <v>-3.2923117161139901</v>
       </c>
-      <c r="K8" s="76">
+      <c r="K8" s="71">
         <v>195048.07629999999</v>
       </c>
-      <c r="L8" s="77">
+      <c r="L8" s="72">
         <v>20.222067928781598</v>
       </c>
-      <c r="M8" s="77">
+      <c r="M8" s="72">
         <v>-1.2336821955110999</v>
       </c>
-      <c r="N8" s="76">
+      <c r="N8" s="71">
         <v>1384415.1657</v>
       </c>
-      <c r="O8" s="76">
+      <c r="O8" s="71">
         <v>108600658.32529999</v>
       </c>
-      <c r="P8" s="76">
+      <c r="P8" s="71">
         <v>47012</v>
       </c>
-      <c r="Q8" s="76">
+      <c r="Q8" s="71">
         <v>31611</v>
       </c>
-      <c r="R8" s="77">
+      <c r="R8" s="72">
         <v>48.720382145455702</v>
       </c>
-      <c r="S8" s="76">
+      <c r="S8" s="71">
         <v>29.448123153662898</v>
       </c>
-      <c r="T8" s="76">
+      <c r="T8" s="71">
         <v>21.678346920375802</v>
       </c>
-      <c r="U8" s="78">
+      <c r="U8" s="73">
         <v>26.384622859472898</v>
       </c>
-      <c r="V8" s="63"/>
-      <c r="W8" s="63"/>
     </row>
-    <row r="9" spans="1:23" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="54"/>
-      <c r="B9" s="62" t="s">
+    <row r="9" spans="1:23" ht="12" thickBot="1">
+      <c r="A9" s="74"/>
+      <c r="B9" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="51"/>
-      <c r="D9" s="76">
+      <c r="C9" s="47"/>
+      <c r="D9" s="71">
         <v>131554.82089999999</v>
       </c>
-      <c r="E9" s="76">
+      <c r="E9" s="71">
         <v>250365.95389999999</v>
       </c>
-      <c r="F9" s="77">
+      <c r="F9" s="72">
         <v>52.545012151510399</v>
       </c>
-      <c r="G9" s="76">
+      <c r="G9" s="71">
         <v>156556.22080000001</v>
       </c>
-      <c r="H9" s="77">
+      <c r="H9" s="72">
         <v>-15.9695985073242</v>
       </c>
-      <c r="I9" s="76">
+      <c r="I9" s="71">
         <v>27032.568599999999</v>
       </c>
-      <c r="J9" s="77">
+      <c r="J9" s="72">
         <v>20.5485199364518</v>
       </c>
-      <c r="K9" s="76">
+      <c r="K9" s="71">
         <v>37115.248099999997</v>
       </c>
-      <c r="L9" s="77">
+      <c r="L9" s="72">
         <v>23.7072969124712</v>
       </c>
-      <c r="M9" s="77">
+      <c r="M9" s="72">
         <v>-0.271658685207603</v>
       </c>
-      <c r="N9" s="76">
+      <c r="N9" s="71">
         <v>131554.82089999999</v>
       </c>
-      <c r="O9" s="76">
+      <c r="O9" s="71">
         <v>15075959.589400001</v>
       </c>
-      <c r="P9" s="76">
+      <c r="P9" s="71">
         <v>7199</v>
       </c>
-      <c r="Q9" s="76">
+      <c r="Q9" s="71">
         <v>6541</v>
       </c>
-      <c r="R9" s="77">
+      <c r="R9" s="72">
         <v>10.059623910717001</v>
       </c>
-      <c r="S9" s="76">
+      <c r="S9" s="71">
         <v>18.274040964022799</v>
       </c>
-      <c r="T9" s="76">
+      <c r="T9" s="71">
         <v>49.919398195994503</v>
       </c>
-      <c r="U9" s="78">
+      <c r="U9" s="73">
         <v>-173.171097155106</v>
       </c>
-      <c r="V9" s="63"/>
-      <c r="W9" s="63"/>
     </row>
-    <row r="10" spans="1:23" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="54"/>
-      <c r="B10" s="62" t="s">
+    <row r="10" spans="1:23" ht="12" thickBot="1">
+      <c r="A10" s="74"/>
+      <c r="B10" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="51"/>
-      <c r="D10" s="76">
+      <c r="C10" s="47"/>
+      <c r="D10" s="71">
         <v>291834.40409999999</v>
       </c>
-      <c r="E10" s="76">
+      <c r="E10" s="71">
         <v>346519.33360000001</v>
       </c>
-      <c r="F10" s="77">
+      <c r="F10" s="72">
         <v>84.218794105403404</v>
       </c>
-      <c r="G10" s="76">
+      <c r="G10" s="71">
         <v>337925.48220000003</v>
       </c>
-      <c r="H10" s="77">
+      <c r="H10" s="72">
         <v>-13.639420679355901</v>
       </c>
-      <c r="I10" s="76">
+      <c r="I10" s="71">
         <v>60391.536599999999</v>
       </c>
-      <c r="J10" s="77">
+      <c r="J10" s="72">
         <v>20.6937687097736</v>
       </c>
-      <c r="K10" s="76">
+      <c r="K10" s="71">
         <v>78068.913700000005</v>
       </c>
-      <c r="L10" s="77">
+      <c r="L10" s="72">
         <v>23.102405060354499</v>
       </c>
-      <c r="M10" s="77">
+      <c r="M10" s="72">
         <v>-0.226432984169985</v>
       </c>
-      <c r="N10" s="76">
+      <c r="N10" s="71">
         <v>291834.40409999999</v>
       </c>
-      <c r="O10" s="76">
+      <c r="O10" s="71">
         <v>25766347.834800001</v>
       </c>
-      <c r="P10" s="76">
+      <c r="P10" s="71">
         <v>144925</v>
       </c>
-      <c r="Q10" s="76">
+      <c r="Q10" s="71">
         <v>128973</v>
       </c>
-      <c r="R10" s="77">
+      <c r="R10" s="72">
         <v>12.3684802245431</v>
       </c>
-      <c r="S10" s="76">
+      <c r="S10" s="71">
         <v>2.0136926279109901</v>
       </c>
-      <c r="T10" s="76">
+      <c r="T10" s="71">
         <v>2.4356844812480101</v>
       </c>
-      <c r="U10" s="78">
+      <c r="U10" s="73">
         <v>-20.956120486710098</v>
       </c>
-      <c r="V10" s="63"/>
-      <c r="W10" s="63"/>
     </row>
-    <row r="11" spans="1:23" ht="14.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="54"/>
-      <c r="B11" s="62" t="s">
+    <row r="11" spans="1:23" ht="12" thickBot="1">
+      <c r="A11" s="74"/>
+      <c r="B11" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="51"/>
-      <c r="D11" s="76">
+      <c r="C11" s="47"/>
+      <c r="D11" s="71">
         <v>100082.7199</v>
       </c>
-      <c r="E11" s="76">
+      <c r="E11" s="71">
         <v>121486.8567</v>
       </c>
-      <c r="F11" s="77">
+      <c r="F11" s="72">
         <v>82.381520617612594</v>
       </c>
-      <c r="G11" s="76">
+      <c r="G11" s="71">
         <v>82370.103900000002</v>
       </c>
-      <c r="H11" s="77">
+      <c r="H11" s="72">
         <v>21.503695104602102</v>
       </c>
-      <c r="I11" s="76">
+      <c r="I11" s="71">
         <v>-4114.0454</v>
       </c>
-      <c r="J11" s="77">
+      <c r="J11" s="72">
         <v>-4.1106450785017099</v>
       </c>
-      <c r="K11" s="76">
+      <c r="K11" s="71">
         <v>17621.466100000001</v>
       </c>
-      <c r="L11" s="77">
+      <c r="L11" s="72">
         <v>21.3930361449987</v>
       </c>
-      <c r="M11" s="77">
+      <c r="M11" s="72">
         <v>-1.23346782706122</v>
       </c>
-      <c r="N11" s="76">
+      <c r="N11" s="71">
         <v>100082.7199</v>
       </c>
-      <c r="O11" s="76">
+      <c r="O11" s="71">
         <v>8615779.4933000002</v>
       </c>
-      <c r="P11" s="76">
+      <c r="P11" s="71">
         <v>4529</v>
       </c>
-      <c r="Q11" s="76">
+      <c r="Q11" s="71">
         <v>2757</v>
       </c>
-      <c r="R11" s="77">
+      <c r="R11" s="72">
         <v>64.272760246644907</v>
       </c>
-      <c r="S11" s="76">
+      <c r="S11" s="71">
         <v>22.0981938396997</v>
       </c>
-      <c r="T11" s="76">
+      <c r="T11" s="71">
         <v>20.631910554950998</v>
       </c>
-      <c r="U11" s="78">
+      <c r="U11" s="73">
         <v>6.6353082762559499</v>
       </c>
-      <c r="V11" s="63"/>
-      <c r="W11" s="63"/>
     </row>
-    <row r="12" spans="1:23" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="54"/>
-      <c r="B12" s="62" t="s">
+    <row r="12" spans="1:23" ht="12" thickBot="1">
+      <c r="A12" s="74"/>
+      <c r="B12" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="51"/>
-      <c r="D12" s="76">
+      <c r="C12" s="47"/>
+      <c r="D12" s="71">
         <v>370762.66220000002</v>
       </c>
-      <c r="E12" s="76">
+      <c r="E12" s="71">
         <v>907440.89969999995</v>
       </c>
-      <c r="F12" s="77">
+      <c r="F12" s="72">
         <v>40.858050625949801</v>
       </c>
-      <c r="G12" s="76">
+      <c r="G12" s="71">
         <v>882574.05519999994</v>
       </c>
-      <c r="H12" s="77">
+      <c r="H12" s="72">
         <v>-57.9907589606199</v>
       </c>
-      <c r="I12" s="76">
+      <c r="I12" s="71">
         <v>54622.118199999997</v>
       </c>
-      <c r="J12" s="77">
+      <c r="J12" s="72">
         <v>14.732367567944401</v>
       </c>
-      <c r="K12" s="76">
+      <c r="K12" s="71">
         <v>128865.049</v>
       </c>
-      <c r="L12" s="77">
+      <c r="L12" s="72">
         <v>14.601046591019299</v>
       </c>
-      <c r="M12" s="77">
+      <c r="M12" s="72">
         <v>-0.57612930252329297</v>
       </c>
-      <c r="N12" s="76">
+      <c r="N12" s="71">
         <v>370762.66220000002</v>
       </c>
-      <c r="O12" s="76">
+      <c r="O12" s="71">
         <v>28014188.2958</v>
       </c>
-      <c r="P12" s="76">
+      <c r="P12" s="71">
         <v>4075</v>
       </c>
-      <c r="Q12" s="76">
+      <c r="Q12" s="71">
         <v>2194</v>
       </c>
-      <c r="R12" s="77">
+      <c r="R12" s="72">
         <v>85.733819507748393</v>
       </c>
-      <c r="S12" s="76">
+      <c r="S12" s="71">
         <v>90.984702380368105</v>
       </c>
-      <c r="T12" s="76">
+      <c r="T12" s="71">
         <v>86.231255287146794</v>
       </c>
-      <c r="U12" s="78">
+      <c r="U12" s="73">
         <v>5.2244464935975898</v>
       </c>
-      <c r="V12" s="63"/>
-      <c r="W12" s="63"/>
     </row>
-    <row r="13" spans="1:23" ht="14.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="54"/>
-      <c r="B13" s="62" t="s">
+    <row r="13" spans="1:23" ht="12" thickBot="1">
+      <c r="A13" s="74"/>
+      <c r="B13" s="46" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="51"/>
-      <c r="D13" s="76">
+      <c r="C13" s="47"/>
+      <c r="D13" s="71">
         <v>406740.69130000001</v>
       </c>
-      <c r="E13" s="76">
+      <c r="E13" s="71">
         <v>731685.56370000006</v>
       </c>
-      <c r="F13" s="77">
+      <c r="F13" s="72">
         <v>55.589547133223</v>
       </c>
-      <c r="G13" s="76">
+      <c r="G13" s="71">
         <v>658438.68960000004</v>
       </c>
-      <c r="H13" s="77">
+      <c r="H13" s="72">
         <v>-38.226489766709498</v>
       </c>
-      <c r="I13" s="76">
+      <c r="I13" s="71">
         <v>94689.531300000002</v>
       </c>
-      <c r="J13" s="77">
+      <c r="J13" s="72">
         <v>23.280073355178502</v>
       </c>
-      <c r="K13" s="76">
+      <c r="K13" s="71">
         <v>141967.29639999999</v>
       </c>
-      <c r="L13" s="77">
+      <c r="L13" s="72">
         <v>21.561202074295601</v>
       </c>
-      <c r="M13" s="77">
+      <c r="M13" s="72">
         <v>-0.33301870429928099</v>
       </c>
-      <c r="N13" s="76">
+      <c r="N13" s="71">
         <v>406740.69130000001</v>
       </c>
-      <c r="O13" s="76">
+      <c r="O13" s="71">
         <v>46421463.515500002</v>
       </c>
-      <c r="P13" s="76">
+      <c r="P13" s="71">
         <v>20675</v>
       </c>
-      <c r="Q13" s="76">
+      <c r="Q13" s="71">
         <v>15932</v>
       </c>
-      <c r="R13" s="77">
+      <c r="R13" s="72">
         <v>29.770273663068</v>
       </c>
-      <c r="S13" s="76">
+      <c r="S13" s="71">
         <v>19.673068503023</v>
       </c>
-      <c r="T13" s="76">
+      <c r="T13" s="71">
         <v>17.787652673863899</v>
       </c>
-      <c r="U13" s="78">
+      <c r="U13" s="73">
         <v>9.5837404768317693</v>
       </c>
-      <c r="V13" s="63"/>
-      <c r="W13" s="63"/>
     </row>
-    <row r="14" spans="1:23" ht="14.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="54"/>
-      <c r="B14" s="62" t="s">
+    <row r="14" spans="1:23" ht="12" thickBot="1">
+      <c r="A14" s="74"/>
+      <c r="B14" s="46" t="s">
         <v>12</v>
       </c>
-      <c r="C14" s="51"/>
-      <c r="D14" s="76">
+      <c r="C14" s="47"/>
+      <c r="D14" s="71">
         <v>340769.00919999997</v>
       </c>
-      <c r="E14" s="76">
+      <c r="E14" s="71">
         <v>356839.5442</v>
       </c>
-      <c r="F14" s="77">
+      <c r="F14" s="72">
         <v>95.496425421115106</v>
       </c>
-      <c r="G14" s="76">
+      <c r="G14" s="71">
         <v>429745.3199</v>
       </c>
-      <c r="H14" s="77">
+      <c r="H14" s="72">
         <v>-20.704428083290001</v>
       </c>
-      <c r="I14" s="76">
+      <c r="I14" s="71">
         <v>43492.666299999997</v>
       </c>
-      <c r="J14" s="77">
+      <c r="J14" s="72">
         <v>12.763093217339399</v>
       </c>
-      <c r="K14" s="76">
+      <c r="K14" s="71">
         <v>89240.892800000001</v>
       </c>
-      <c r="L14" s="77">
+      <c r="L14" s="72">
         <v>20.7659952691901</v>
       </c>
-      <c r="M14" s="77">
+      <c r="M14" s="72">
         <v>-0.51263748114362195</v>
       </c>
-      <c r="N14" s="76">
+      <c r="N14" s="71">
         <v>340769.00919999997</v>
       </c>
-      <c r="O14" s="76">
+      <c r="O14" s="71">
         <v>20774402.411499999</v>
       </c>
-      <c r="P14" s="76">
+      <c r="P14" s="71">
         <v>6213</v>
       </c>
-      <c r="Q14" s="76">
+      <c r="Q14" s="71">
         <v>4097</v>
       </c>
-      <c r="R14" s="77">
+      <c r="R14" s="72">
         <v>51.647546985599199</v>
       </c>
-      <c r="S14" s="76">
+      <c r="S14" s="71">
         <v>54.847740093352598</v>
       </c>
-      <c r="T14" s="76">
+      <c r="T14" s="71">
         <v>49.782991457163803</v>
       </c>
-      <c r="U14" s="78">
+      <c r="U14" s="73">
         <v>9.23419748483437</v>
       </c>
-      <c r="V14" s="63"/>
-      <c r="W14" s="63"/>
     </row>
-    <row r="15" spans="1:23" ht="14.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="54"/>
-      <c r="B15" s="62" t="s">
+    <row r="15" spans="1:23" ht="12" thickBot="1">
+      <c r="A15" s="74"/>
+      <c r="B15" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="C15" s="51"/>
-      <c r="D15" s="76">
+      <c r="C15" s="47"/>
+      <c r="D15" s="71">
         <v>310423.92920000001</v>
       </c>
-      <c r="E15" s="76">
+      <c r="E15" s="71">
         <v>433610.12400000001</v>
       </c>
-      <c r="F15" s="77">
+      <c r="F15" s="72">
         <v>71.590563046908898</v>
       </c>
-      <c r="G15" s="76">
+      <c r="G15" s="71">
         <v>350644.2415</v>
       </c>
-      <c r="H15" s="77">
+      <c r="H15" s="72">
         <v>-11.470404341432801</v>
       </c>
-      <c r="I15" s="76">
+      <c r="I15" s="71">
         <v>20229.555700000001</v>
       </c>
-      <c r="J15" s="77">
+      <c r="J15" s="72">
         <v>6.5167513832242303</v>
       </c>
-      <c r="K15" s="76">
+      <c r="K15" s="71">
         <v>57307.370300000002</v>
       </c>
-      <c r="L15" s="77">
+      <c r="L15" s="72">
         <v>16.343451144341699</v>
       </c>
-      <c r="M15" s="77">
+      <c r="M15" s="72">
         <v>-0.64699905799027702</v>
       </c>
-      <c r="N15" s="76">
+      <c r="N15" s="71">
         <v>310423.92920000001</v>
       </c>
-      <c r="O15" s="76">
+      <c r="O15" s="71">
         <v>16923548.326299999</v>
       </c>
-      <c r="P15" s="76">
+      <c r="P15" s="71">
         <v>13125</v>
       </c>
-      <c r="Q15" s="76">
+      <c r="Q15" s="71">
         <v>8921</v>
       </c>
-      <c r="R15" s="77">
+      <c r="R15" s="72">
         <v>47.124761798004698</v>
       </c>
-      <c r="S15" s="76">
+      <c r="S15" s="71">
         <v>23.651346986666699</v>
       </c>
-      <c r="T15" s="76">
+      <c r="T15" s="71">
         <v>20.405435119381199</v>
       </c>
-      <c r="U15" s="78">
+      <c r="U15" s="73">
         <v>13.7240042569893</v>
       </c>
-      <c r="V15" s="63"/>
-      <c r="W15" s="63"/>
     </row>
-    <row r="16" spans="1:23" ht="14.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="54"/>
-      <c r="B16" s="62" t="s">
+    <row r="16" spans="1:23" ht="12" thickBot="1">
+      <c r="A16" s="74"/>
+      <c r="B16" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="C16" s="51"/>
-      <c r="D16" s="76">
+      <c r="C16" s="47"/>
+      <c r="D16" s="71">
         <v>3056697.5159999998</v>
       </c>
-      <c r="E16" s="76">
+      <c r="E16" s="71">
         <v>3707749.4821000001</v>
       </c>
-      <c r="F16" s="77">
+      <c r="F16" s="72">
         <v>82.440777910074502</v>
       </c>
-      <c r="G16" s="76">
+      <c r="G16" s="71">
         <v>3028918.6814999999</v>
       </c>
-      <c r="H16" s="77">
+      <c r="H16" s="72">
         <v>0.91712051134509298</v>
       </c>
-      <c r="I16" s="76">
+      <c r="I16" s="71">
         <v>-131213.11970000001</v>
       </c>
-      <c r="J16" s="77">
+      <c r="J16" s="72">
         <v>-4.2926432534844299</v>
       </c>
-      <c r="K16" s="76">
+      <c r="K16" s="71">
         <v>62969.976900000001</v>
       </c>
-      <c r="L16" s="77">
+      <c r="L16" s="72">
         <v>2.0789589791435299</v>
       </c>
-      <c r="M16" s="77">
+      <c r="M16" s="72">
         <v>-3.0837409533812301</v>
       </c>
-      <c r="N16" s="76">
+      <c r="N16" s="71">
         <v>3056697.5159999998</v>
       </c>
-      <c r="O16" s="76">
+      <c r="O16" s="71">
         <v>141683114.38710001</v>
       </c>
-      <c r="P16" s="76">
+      <c r="P16" s="71">
         <v>95291</v>
       </c>
-      <c r="Q16" s="76">
+      <c r="Q16" s="71">
         <v>73484</v>
       </c>
-      <c r="R16" s="77">
+      <c r="R16" s="72">
         <v>29.675847803603499</v>
       </c>
-      <c r="S16" s="76">
+      <c r="S16" s="71">
         <v>32.077504864048002</v>
       </c>
-      <c r="T16" s="76">
+      <c r="T16" s="71">
         <v>24.998700402808801</v>
       </c>
-      <c r="U16" s="78">
+      <c r="U16" s="73">
         <v>22.067815097342699</v>
       </c>
-      <c r="V16" s="63"/>
-      <c r="W16" s="63"/>
     </row>
-    <row r="17" spans="1:21" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="54"/>
-      <c r="B17" s="62" t="s">
+    <row r="17" spans="1:21" ht="12" thickBot="1">
+      <c r="A17" s="74"/>
+      <c r="B17" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="C17" s="51"/>
-      <c r="D17" s="76">
+      <c r="C17" s="47"/>
+      <c r="D17" s="71">
         <v>5866774.4649999999</v>
       </c>
-      <c r="E17" s="76">
+      <c r="E17" s="71">
         <v>4477094.2775999997</v>
       </c>
-      <c r="F17" s="77">
+      <c r="F17" s="72">
         <v>131.03977940229899</v>
       </c>
-      <c r="G17" s="76">
+      <c r="G17" s="71">
         <v>5755154.9709999999</v>
       </c>
-      <c r="H17" s="77">
+      <c r="H17" s="72">
         <v>1.9394698242261901</v>
       </c>
-      <c r="I17" s="76">
+      <c r="I17" s="71">
         <v>-75203.802500000005</v>
       </c>
-      <c r="J17" s="77">
+      <c r="J17" s="72">
         <v>-1.28185944335598</v>
       </c>
-      <c r="K17" s="76">
+      <c r="K17" s="71">
         <v>-86258.030199999994</v>
       </c>
-      <c r="L17" s="77">
+      <c r="L17" s="72">
         <v>-1.49879596005061</v>
       </c>
-      <c r="M17" s="77">
+      <c r="M17" s="72">
         <v>-0.12815302731084099</v>
       </c>
-      <c r="N17" s="76">
+      <c r="N17" s="71">
         <v>5866774.4649999999</v>
       </c>
-      <c r="O17" s="76">
+      <c r="O17" s="71">
         <v>180123075.83360001</v>
       </c>
-      <c r="P17" s="76">
+      <c r="P17" s="71">
         <v>16647</v>
       </c>
-      <c r="Q17" s="76">
+      <c r="Q17" s="71">
         <v>14831</v>
       </c>
-      <c r="R17" s="77">
+      <c r="R17" s="72">
         <v>12.244622749646</v>
       </c>
-      <c r="S17" s="76">
+      <c r="S17" s="71">
         <v>352.42232624496899</v>
       </c>
-      <c r="T17" s="76">
+      <c r="T17" s="71">
         <v>95.1114967365653</v>
       </c>
-      <c r="U17" s="78">
+      <c r="U17" s="73">
         <v>73.012068290346306</v>
       </c>
     </row>
-    <row r="18" spans="1:21" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="54"/>
-      <c r="B18" s="62" t="s">
+    <row r="18" spans="1:21" ht="12" thickBot="1">
+      <c r="A18" s="74"/>
+      <c r="B18" s="46" t="s">
         <v>16</v>
       </c>
-      <c r="C18" s="51"/>
-      <c r="D18" s="76">
+      <c r="C18" s="47"/>
+      <c r="D18" s="71">
         <v>2909379.2426</v>
       </c>
-      <c r="E18" s="76">
+      <c r="E18" s="71">
         <v>4339069.8433999997</v>
       </c>
-      <c r="F18" s="77">
+      <c r="F18" s="72">
         <v>67.050758517412504</v>
       </c>
-      <c r="G18" s="76">
+      <c r="G18" s="71">
         <v>3564766.2722</v>
       </c>
-      <c r="H18" s="77">
+      <c r="H18" s="72">
         <v>-18.385133261360401</v>
       </c>
-      <c r="I18" s="76">
+      <c r="I18" s="71">
         <v>355400.49849999999</v>
       </c>
-      <c r="J18" s="77">
+      <c r="J18" s="72">
         <v>12.2156813830291</v>
       </c>
-      <c r="K18" s="76">
+      <c r="K18" s="71">
         <v>443496.1655</v>
       </c>
-      <c r="L18" s="77">
+      <c r="L18" s="72">
         <v>12.4411008081687</v>
       </c>
-      <c r="M18" s="77">
+      <c r="M18" s="72">
         <v>-0.198639072562624</v>
       </c>
-      <c r="N18" s="76">
+      <c r="N18" s="71">
         <v>2909379.2426</v>
       </c>
-      <c r="O18" s="76">
+      <c r="O18" s="71">
         <v>332207396.82950002</v>
       </c>
-      <c r="P18" s="76">
+      <c r="P18" s="71">
         <v>124521</v>
       </c>
-      <c r="Q18" s="76">
+      <c r="Q18" s="71">
         <v>110852</v>
       </c>
-      <c r="R18" s="77">
+      <c r="R18" s="72">
         <v>12.330855555154599</v>
       </c>
-      <c r="S18" s="76">
+      <c r="S18" s="71">
         <v>23.3645669613961</v>
       </c>
-      <c r="T18" s="76">
+      <c r="T18" s="71">
         <v>22.726403092411498</v>
       </c>
-      <c r="U18" s="78">
+      <c r="U18" s="73">
         <v>2.7313318926002998</v>
       </c>
     </row>
-    <row r="19" spans="1:21" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="54"/>
-      <c r="B19" s="62" t="s">
+    <row r="19" spans="1:21" ht="12" thickBot="1">
+      <c r="A19" s="74"/>
+      <c r="B19" s="46" t="s">
         <v>17</v>
       </c>
-      <c r="C19" s="51"/>
-      <c r="D19" s="76">
+      <c r="C19" s="47"/>
+      <c r="D19" s="71">
         <v>1216983.0852999999</v>
       </c>
-      <c r="E19" s="76">
+      <c r="E19" s="71">
         <v>2155053.4078000002</v>
       </c>
-      <c r="F19" s="77">
+      <c r="F19" s="72">
         <v>56.471133425058099</v>
       </c>
-      <c r="G19" s="76">
+      <c r="G19" s="71">
         <v>1674355.4408</v>
       </c>
-      <c r="H19" s="77">
+      <c r="H19" s="72">
         <v>-27.3163239032131</v>
       </c>
-      <c r="I19" s="76">
+      <c r="I19" s="71">
         <v>-8293.6420999999991</v>
       </c>
-      <c r="J19" s="77">
+      <c r="J19" s="72">
         <v>-0.68149197800522598</v>
       </c>
-      <c r="K19" s="76">
+      <c r="K19" s="71">
         <v>-26543.135300000002</v>
       </c>
-      <c r="L19" s="77">
+      <c r="L19" s="72">
         <v>-1.5852748259543901</v>
       </c>
-      <c r="M19" s="77">
+      <c r="M19" s="72">
         <v>-0.68754097787385404</v>
       </c>
-      <c r="N19" s="76">
+      <c r="N19" s="71">
         <v>1216983.0852999999</v>
       </c>
-      <c r="O19" s="76">
+      <c r="O19" s="71">
         <v>94969734.442599997</v>
       </c>
-      <c r="P19" s="76">
+      <c r="P19" s="71">
         <v>19175</v>
       </c>
-      <c r="Q19" s="76">
+      <c r="Q19" s="71">
         <v>16257</v>
       </c>
-      <c r="R19" s="77">
+      <c r="R19" s="72">
         <v>17.949191117672399</v>
       </c>
-      <c r="S19" s="76">
+      <c r="S19" s="71">
         <v>63.467175243806999</v>
       </c>
-      <c r="T19" s="76">
+      <c r="T19" s="71">
         <v>76.519305210063393</v>
       </c>
-      <c r="U19" s="78">
+      <c r="U19" s="73">
         <v>-20.5651660344375</v>
       </c>
     </row>
-    <row r="20" spans="1:21" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="54"/>
-      <c r="B20" s="62" t="s">
+    <row r="20" spans="1:21" ht="12" thickBot="1">
+      <c r="A20" s="74"/>
+      <c r="B20" s="46" t="s">
         <v>18</v>
       </c>
-      <c r="C20" s="51"/>
-      <c r="D20" s="76">
+      <c r="C20" s="47"/>
+      <c r="D20" s="71">
         <v>4200533.4813999999</v>
       </c>
-      <c r="E20" s="76">
+      <c r="E20" s="71">
         <v>5253127.5651000002</v>
       </c>
-      <c r="F20" s="77">
+      <c r="F20" s="72">
         <v>79.962525740035701</v>
       </c>
-      <c r="G20" s="76">
+      <c r="G20" s="71">
         <v>4037096.3643999998</v>
       </c>
-      <c r="H20" s="77">
+      <c r="H20" s="72">
         <v>4.0483828536079596</v>
       </c>
-      <c r="I20" s="76">
+      <c r="I20" s="71">
         <v>-138037.99540000001</v>
       </c>
-      <c r="J20" s="77">
+      <c r="J20" s="72">
         <v>-3.2862015268116198</v>
       </c>
-      <c r="K20" s="76">
+      <c r="K20" s="71">
         <v>-385157.39679999999</v>
       </c>
-      <c r="L20" s="77">
+      <c r="L20" s="72">
         <v>-9.5404558631892602</v>
       </c>
-      <c r="M20" s="77">
+      <c r="M20" s="72">
         <v>-0.64160627175575502</v>
       </c>
-      <c r="N20" s="76">
+      <c r="N20" s="71">
         <v>4200533.4813999999</v>
       </c>
-      <c r="O20" s="76">
+      <c r="O20" s="71">
         <v>161560753.3344</v>
       </c>
-      <c r="P20" s="76">
+      <c r="P20" s="71">
         <v>65854</v>
       </c>
-      <c r="Q20" s="76">
+      <c r="Q20" s="71">
         <v>55617</v>
       </c>
-      <c r="R20" s="77">
+      <c r="R20" s="72">
         <v>18.406242695578701</v>
       </c>
-      <c r="S20" s="76">
+      <c r="S20" s="71">
         <v>63.785548051750801</v>
       </c>
-      <c r="T20" s="76">
+      <c r="T20" s="71">
         <v>48.552143067767098</v>
       </c>
-      <c r="U20" s="78">
+      <c r="U20" s="73">
         <v>23.882220109835099</v>
       </c>
     </row>
-    <row r="21" spans="1:21" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="54"/>
-      <c r="B21" s="62" t="s">
+    <row r="21" spans="1:21" ht="12" thickBot="1">
+      <c r="A21" s="74"/>
+      <c r="B21" s="46" t="s">
         <v>19</v>
       </c>
-      <c r="C21" s="51"/>
-      <c r="D21" s="76">
+      <c r="C21" s="47"/>
+      <c r="D21" s="71">
         <v>512621.47230000002</v>
       </c>
-      <c r="E21" s="76">
+      <c r="E21" s="71">
         <v>661540.39859999996</v>
       </c>
-      <c r="F21" s="77">
+      <c r="F21" s="72">
         <v>77.489065427424705</v>
       </c>
-      <c r="G21" s="76">
+      <c r="G21" s="71">
         <v>492676.62040000001</v>
       </c>
-      <c r="H21" s="77">
+      <c r="H21" s="72">
         <v>4.0482643328613603</v>
       </c>
-      <c r="I21" s="76">
+      <c r="I21" s="71">
         <v>37088.582900000001</v>
       </c>
-      <c r="J21" s="77">
+      <c r="J21" s="72">
         <v>7.2350818106766202</v>
       </c>
-      <c r="K21" s="76">
+      <c r="K21" s="71">
         <v>36572.128900000003</v>
       </c>
-      <c r="L21" s="77">
+      <c r="L21" s="72">
         <v>7.42315088349583</v>
       </c>
-      <c r="M21" s="77">
+      <c r="M21" s="72">
         <v>1.4121518640934E-2</v>
       </c>
-      <c r="N21" s="76">
+      <c r="N21" s="71">
         <v>512621.47230000002</v>
       </c>
-      <c r="O21" s="76">
+      <c r="O21" s="71">
         <v>57799806.364600003</v>
       </c>
-      <c r="P21" s="76">
+      <c r="P21" s="71">
         <v>39757</v>
       </c>
-      <c r="Q21" s="76">
+      <c r="Q21" s="71">
         <v>36631</v>
       </c>
-      <c r="R21" s="77">
+      <c r="R21" s="72">
         <v>8.5337555622287091</v>
       </c>
-      <c r="S21" s="76">
+      <c r="S21" s="71">
         <v>12.893867049827699</v>
       </c>
-      <c r="T21" s="76">
+      <c r="T21" s="71">
         <v>11.9493088258579</v>
       </c>
-      <c r="U21" s="78">
+      <c r="U21" s="73">
         <v>7.3256395487841299</v>
       </c>
     </row>
-    <row r="22" spans="1:21" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="54"/>
-      <c r="B22" s="62" t="s">
+    <row r="22" spans="1:21" ht="12" thickBot="1">
+      <c r="A22" s="74"/>
+      <c r="B22" s="46" t="s">
         <v>20</v>
       </c>
-      <c r="C22" s="51"/>
-      <c r="D22" s="76">
+      <c r="C22" s="47"/>
+      <c r="D22" s="71">
         <v>2289960.5452000001</v>
       </c>
-      <c r="E22" s="76">
+      <c r="E22" s="71">
         <v>2672563.0345999999</v>
       </c>
-      <c r="F22" s="77">
+      <c r="F22" s="72">
         <v>85.684061163509199</v>
       </c>
-      <c r="G22" s="76">
+      <c r="G22" s="71">
         <v>1953663.0112999999</v>
       </c>
-      <c r="H22" s="77">
+      <c r="H22" s="72">
         <v>17.213692021339</v>
       </c>
-      <c r="I22" s="76">
+      <c r="I22" s="71">
         <v>37534.949200000003</v>
       </c>
-      <c r="J22" s="77">
+      <c r="J22" s="72">
         <v>1.6391089915796699</v>
       </c>
-      <c r="K22" s="76">
+      <c r="K22" s="71">
         <v>235759.0834</v>
       </c>
-      <c r="L22" s="77">
+      <c r="L22" s="72">
         <v>12.0675409237094</v>
       </c>
-      <c r="M22" s="77">
+      <c r="M22" s="72">
         <v>-0.84079107935656305</v>
       </c>
-      <c r="N22" s="76">
+      <c r="N22" s="71">
         <v>2289960.5452000001</v>
       </c>
-      <c r="O22" s="76">
+      <c r="O22" s="71">
         <v>181164712.17480001</v>
       </c>
-      <c r="P22" s="76">
+      <c r="P22" s="71">
         <v>111618</v>
       </c>
-      <c r="Q22" s="76">
+      <c r="Q22" s="71">
         <v>105413</v>
       </c>
-      <c r="R22" s="77">
+      <c r="R22" s="72">
         <v>5.88637075123561</v>
       </c>
-      <c r="S22" s="76">
+      <c r="S22" s="71">
         <v>20.516050683581501</v>
       </c>
-      <c r="T22" s="76">
+      <c r="T22" s="71">
         <v>17.340673022302799</v>
       </c>
-      <c r="U22" s="78">
+      <c r="U22" s="73">
         <v>15.477528839504799</v>
       </c>
     </row>
-    <row r="23" spans="1:21" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="54"/>
-      <c r="B23" s="62" t="s">
+    <row r="23" spans="1:21" ht="12" thickBot="1">
+      <c r="A23" s="74"/>
+      <c r="B23" s="46" t="s">
         <v>21</v>
       </c>
-      <c r="C23" s="51"/>
-      <c r="D23" s="76">
+      <c r="C23" s="47"/>
+      <c r="D23" s="71">
         <v>7917581.3940000003</v>
       </c>
-      <c r="E23" s="76">
+      <c r="E23" s="71">
         <v>9122862.1128000002</v>
       </c>
-      <c r="F23" s="77">
+      <c r="F23" s="72">
         <v>86.788348832885404</v>
       </c>
-      <c r="G23" s="76">
+      <c r="G23" s="71">
         <v>6417692.7759999996</v>
       </c>
-      <c r="H23" s="77">
+      <c r="H23" s="72">
         <v>23.371150199166198</v>
       </c>
-      <c r="I23" s="76">
+      <c r="I23" s="71">
         <v>-507512.24</v>
       </c>
-      <c r="J23" s="77">
+      <c r="J23" s="72">
         <v>-6.4099402929358797</v>
       </c>
-      <c r="K23" s="76">
+      <c r="K23" s="71">
         <v>190387.79240000001</v>
       </c>
-      <c r="L23" s="77">
+      <c r="L23" s="72">
         <v>2.96660807933945</v>
       </c>
-      <c r="M23" s="77">
+      <c r="M23" s="72">
         <v>-3.6656763734815998</v>
       </c>
-      <c r="N23" s="76">
+      <c r="N23" s="71">
         <v>7917581.3940000003</v>
       </c>
-      <c r="O23" s="76">
+      <c r="O23" s="71">
         <v>409875001.85219997</v>
       </c>
-      <c r="P23" s="76">
+      <c r="P23" s="71">
         <v>144791</v>
       </c>
-      <c r="Q23" s="76">
+      <c r="Q23" s="71">
         <v>106554</v>
       </c>
-      <c r="R23" s="77">
+      <c r="R23" s="72">
         <v>35.885091127503401</v>
       </c>
-      <c r="S23" s="76">
+      <c r="S23" s="71">
         <v>54.682828311151901</v>
       </c>
-      <c r="T23" s="76">
+      <c r="T23" s="71">
         <v>41.120388780336697</v>
       </c>
-      <c r="U23" s="78">
+      <c r="U23" s="73">
         <v>24.802008143476598</v>
       </c>
     </row>
-    <row r="24" spans="1:21" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="54"/>
-      <c r="B24" s="62" t="s">
+    <row r="24" spans="1:21" ht="12" thickBot="1">
+      <c r="A24" s="74"/>
+      <c r="B24" s="46" t="s">
         <v>22</v>
       </c>
-      <c r="C24" s="51"/>
-      <c r="D24" s="76">
+      <c r="C24" s="47"/>
+      <c r="D24" s="71">
         <v>428395.38429999998</v>
       </c>
-      <c r="E24" s="76">
+      <c r="E24" s="71">
         <v>536157.60589999997</v>
       </c>
-      <c r="F24" s="77">
+      <c r="F24" s="72">
         <v>79.901017832413402</v>
       </c>
-      <c r="G24" s="76">
+      <c r="G24" s="71">
         <v>459511.8248</v>
       </c>
-      <c r="H24" s="77">
+      <c r="H24" s="72">
         <v>-6.7716299822193298</v>
       </c>
-      <c r="I24" s="76">
+      <c r="I24" s="71">
         <v>56636.8534</v>
       </c>
-      <c r="J24" s="77">
+      <c r="J24" s="72">
         <v>13.220696458376899</v>
       </c>
-      <c r="K24" s="76">
+      <c r="K24" s="71">
         <v>59457.5844</v>
       </c>
-      <c r="L24" s="77">
+      <c r="L24" s="72">
         <v>12.939293657106299</v>
       </c>
-      <c r="M24" s="77">
+      <c r="M24" s="72">
         <v>-4.7441062876411998E-2</v>
       </c>
-      <c r="N24" s="76">
+      <c r="N24" s="71">
         <v>428395.38429999998</v>
       </c>
-      <c r="O24" s="76">
+      <c r="O24" s="71">
         <v>39977707.016900003</v>
       </c>
-      <c r="P24" s="76">
+      <c r="P24" s="71">
         <v>34412</v>
       </c>
-      <c r="Q24" s="76">
+      <c r="Q24" s="71">
         <v>31394</v>
       </c>
-      <c r="R24" s="77">
+      <c r="R24" s="72">
         <v>9.6133019048225705</v>
       </c>
-      <c r="S24" s="76">
+      <c r="S24" s="71">
         <v>12.449011516331501</v>
       </c>
-      <c r="T24" s="76">
+      <c r="T24" s="71">
         <v>11.9334125724661</v>
       </c>
-      <c r="U24" s="78">
+      <c r="U24" s="73">
         <v>4.14168581327952</v>
       </c>
     </row>
-    <row r="25" spans="1:21" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="54"/>
-      <c r="B25" s="62" t="s">
+    <row r="25" spans="1:21" ht="12" thickBot="1">
+      <c r="A25" s="74"/>
+      <c r="B25" s="46" t="s">
         <v>23</v>
       </c>
-      <c r="C25" s="51"/>
-      <c r="D25" s="76">
+      <c r="C25" s="47"/>
+      <c r="D25" s="71">
         <v>526668.83019999997</v>
       </c>
-      <c r="E25" s="76">
+      <c r="E25" s="71">
         <v>733521.57059999998</v>
       </c>
-      <c r="F25" s="77">
+      <c r="F25" s="72">
         <v>71.800046693814295</v>
       </c>
-      <c r="G25" s="76">
+      <c r="G25" s="71">
         <v>582105.61970000004</v>
       </c>
-      <c r="H25" s="77">
+      <c r="H25" s="72">
         <v>-9.5234932671789991</v>
       </c>
-      <c r="I25" s="76">
+      <c r="I25" s="71">
         <v>30483.096099999999</v>
       </c>
-      <c r="J25" s="77">
+      <c r="J25" s="72">
         <v>5.7879058626697502</v>
       </c>
-      <c r="K25" s="76">
+      <c r="K25" s="71">
         <v>3191.6594</v>
       </c>
-      <c r="L25" s="77">
+      <c r="L25" s="72">
         <v>0.54829558279215496</v>
       </c>
-      <c r="M25" s="77">
+      <c r="M25" s="72">
         <v>8.5508612541801892</v>
       </c>
-      <c r="N25" s="76">
+      <c r="N25" s="71">
         <v>526668.83019999997</v>
       </c>
-      <c r="O25" s="76">
+      <c r="O25" s="71">
         <v>52567725.316799998</v>
       </c>
-      <c r="P25" s="76">
+      <c r="P25" s="71">
         <v>23472</v>
       </c>
-      <c r="Q25" s="76">
+      <c r="Q25" s="71">
         <v>21619</v>
       </c>
-      <c r="R25" s="77">
+      <c r="R25" s="72">
         <v>8.5711642536657493</v>
       </c>
-      <c r="S25" s="76">
+      <c r="S25" s="71">
         <v>22.438174429107001</v>
       </c>
-      <c r="T25" s="76">
+      <c r="T25" s="71">
         <v>15.885965016883301</v>
       </c>
-      <c r="U25" s="78">
+      <c r="U25" s="73">
         <v>29.201169787343002</v>
       </c>
     </row>
-    <row r="26" spans="1:21" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="54"/>
-      <c r="B26" s="62" t="s">
+    <row r="26" spans="1:21" ht="12" thickBot="1">
+      <c r="A26" s="74"/>
+      <c r="B26" s="46" t="s">
         <v>24</v>
       </c>
-      <c r="C26" s="51"/>
-      <c r="D26" s="76">
+      <c r="C26" s="47"/>
+      <c r="D26" s="71">
         <v>872993.22050000005</v>
       </c>
-      <c r="E26" s="76">
+      <c r="E26" s="71">
         <v>1260544.8726999999</v>
       </c>
-      <c r="F26" s="77">
+      <c r="F26" s="72">
         <v>69.255227592978002</v>
       </c>
-      <c r="G26" s="76">
+      <c r="G26" s="71">
         <v>785332.51890000002</v>
       </c>
-      <c r="H26" s="77">
+      <c r="H26" s="72">
         <v>11.162240132725501</v>
       </c>
-      <c r="I26" s="76">
+      <c r="I26" s="71">
         <v>132008.6642</v>
       </c>
-      <c r="J26" s="77">
+      <c r="J26" s="72">
         <v>15.121384805759799</v>
       </c>
-      <c r="K26" s="76">
+      <c r="K26" s="71">
         <v>139874.19270000001</v>
       </c>
-      <c r="L26" s="77">
+      <c r="L26" s="72">
         <v>17.810823992863401</v>
       </c>
-      <c r="M26" s="77">
+      <c r="M26" s="72">
         <v>-5.6232878618788E-2</v>
       </c>
-      <c r="N26" s="76">
+      <c r="N26" s="71">
         <v>872993.22050000005</v>
       </c>
-      <c r="O26" s="76">
+      <c r="O26" s="71">
         <v>94071771.313299999</v>
       </c>
-      <c r="P26" s="76">
+      <c r="P26" s="71">
         <v>56969</v>
       </c>
-      <c r="Q26" s="76">
+      <c r="Q26" s="71">
         <v>48326</v>
       </c>
-      <c r="R26" s="77">
+      <c r="R26" s="72">
         <v>17.884782518727</v>
       </c>
-      <c r="S26" s="76">
+      <c r="S26" s="71">
         <v>15.3240046428759</v>
       </c>
-      <c r="T26" s="76">
+      <c r="T26" s="71">
         <v>15.783162564665</v>
       </c>
-      <c r="U26" s="78">
+      <c r="U26" s="73">
         <v>-2.9963311320353601</v>
       </c>
     </row>
-    <row r="27" spans="1:21" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="54"/>
-      <c r="B27" s="62" t="s">
+    <row r="27" spans="1:21" ht="12" thickBot="1">
+      <c r="A27" s="74"/>
+      <c r="B27" s="46" t="s">
         <v>25</v>
       </c>
-      <c r="C27" s="51"/>
-      <c r="D27" s="76">
+      <c r="C27" s="47"/>
+      <c r="D27" s="71">
         <v>347380.03399999999</v>
       </c>
-      <c r="E27" s="76">
+      <c r="E27" s="71">
         <v>481858.96460000001</v>
       </c>
-      <c r="F27" s="77">
+      <c r="F27" s="72">
         <v>72.091640816180799</v>
       </c>
-      <c r="G27" s="76">
+      <c r="G27" s="71">
         <v>352747.95010000002</v>
       </c>
-      <c r="H27" s="77">
+      <c r="H27" s="72">
         <v>-1.52174267730777</v>
       </c>
-      <c r="I27" s="76">
+      <c r="I27" s="71">
         <v>96199.341799999995</v>
       </c>
-      <c r="J27" s="77">
+      <c r="J27" s="72">
         <v>27.692824107444199</v>
       </c>
-      <c r="K27" s="76">
+      <c r="K27" s="71">
         <v>97689.908100000001</v>
       </c>
-      <c r="L27" s="77">
+      <c r="L27" s="72">
         <v>27.693969042855102</v>
       </c>
-      <c r="M27" s="77">
+      <c r="M27" s="72">
         <v>-1.525814005756E-2</v>
       </c>
-      <c r="N27" s="76">
+      <c r="N27" s="71">
         <v>347380.03399999999</v>
       </c>
-      <c r="O27" s="76">
+      <c r="O27" s="71">
         <v>32195303.883099999</v>
       </c>
-      <c r="P27" s="76">
+      <c r="P27" s="71">
         <v>37288</v>
       </c>
-      <c r="Q27" s="76">
+      <c r="Q27" s="71">
         <v>36497</v>
       </c>
-      <c r="R27" s="77">
+      <c r="R27" s="72">
         <v>2.1673014220347002</v>
       </c>
-      <c r="S27" s="76">
+      <c r="S27" s="71">
         <v>9.3161347886719597</v>
       </c>
-      <c r="T27" s="76">
+      <c r="T27" s="71">
         <v>8.5104902841329402</v>
       </c>
-      <c r="U27" s="78">
+      <c r="U27" s="73">
         <v>8.6478407924995597</v>
       </c>
     </row>
-    <row r="28" spans="1:21" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="54"/>
-      <c r="B28" s="62" t="s">
+    <row r="28" spans="1:21" ht="12" thickBot="1">
+      <c r="A28" s="74"/>
+      <c r="B28" s="46" t="s">
         <v>26</v>
       </c>
-      <c r="C28" s="51"/>
-      <c r="D28" s="76">
+      <c r="C28" s="47"/>
+      <c r="D28" s="71">
         <v>1537034.5966</v>
       </c>
-      <c r="E28" s="76">
+      <c r="E28" s="71">
         <v>2275876.6189999999</v>
       </c>
-      <c r="F28" s="77">
+      <c r="F28" s="72">
         <v>67.535936867937906</v>
       </c>
-      <c r="G28" s="76">
+      <c r="G28" s="71">
         <v>1871474.4916999999</v>
       </c>
-      <c r="H28" s="77">
+      <c r="H28" s="72">
         <v>-17.870395593594399</v>
       </c>
-      <c r="I28" s="76">
+      <c r="I28" s="71">
         <v>11040.5821</v>
       </c>
-      <c r="J28" s="77">
+      <c r="J28" s="72">
         <v>0.718304072297549</v>
       </c>
-      <c r="K28" s="76">
+      <c r="K28" s="71">
         <v>-182134.1103</v>
       </c>
-      <c r="L28" s="77">
+      <c r="L28" s="72">
         <v>-9.7321182365971808</v>
       </c>
-      <c r="M28" s="77">
+      <c r="M28" s="72">
         <v>-1.0606178715333101</v>
       </c>
-      <c r="N28" s="76">
+      <c r="N28" s="71">
         <v>1537034.5966</v>
       </c>
-      <c r="O28" s="76">
+      <c r="O28" s="71">
         <v>134570431.06889999</v>
       </c>
-      <c r="P28" s="76">
+      <c r="P28" s="71">
         <v>50159</v>
       </c>
-      <c r="Q28" s="76">
+      <c r="Q28" s="71">
         <v>46449</v>
       </c>
-      <c r="R28" s="77">
+      <c r="R28" s="72">
         <v>7.9872548386402196</v>
       </c>
-      <c r="S28" s="76">
+      <c r="S28" s="71">
         <v>30.643246408421199</v>
       </c>
-      <c r="T28" s="76">
+      <c r="T28" s="71">
         <v>25.4767322654955</v>
       </c>
-      <c r="U28" s="78">
+      <c r="U28" s="73">
         <v>16.860204934115298</v>
       </c>
     </row>
-    <row r="29" spans="1:21" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="54"/>
-      <c r="B29" s="62" t="s">
+    <row r="29" spans="1:21" ht="12" thickBot="1">
+      <c r="A29" s="74"/>
+      <c r="B29" s="46" t="s">
         <v>27</v>
       </c>
-      <c r="C29" s="51"/>
-      <c r="D29" s="76">
+      <c r="C29" s="47"/>
+      <c r="D29" s="71">
         <v>1027470.8864</v>
       </c>
-      <c r="E29" s="76">
+      <c r="E29" s="71">
         <v>1848679.8596000001</v>
       </c>
-      <c r="F29" s="77">
+      <c r="F29" s="72">
         <v>55.578627151935002</v>
       </c>
-      <c r="G29" s="76">
+      <c r="G29" s="71">
         <v>1355950.8515000001</v>
       </c>
-      <c r="H29" s="77">
+      <c r="H29" s="72">
         <v>-24.2250642592705</v>
       </c>
-      <c r="I29" s="76">
+      <c r="I29" s="71">
         <v>145151.4614</v>
       </c>
-      <c r="J29" s="77">
+      <c r="J29" s="72">
         <v>14.12706319189</v>
       </c>
-      <c r="K29" s="76">
+      <c r="K29" s="71">
         <v>107522.3358</v>
       </c>
-      <c r="L29" s="77">
+      <c r="L29" s="72">
         <v>7.9296632087405703</v>
       </c>
-      <c r="M29" s="77">
+      <c r="M29" s="72">
         <v>0.34996566359935799</v>
       </c>
-      <c r="N29" s="76">
+      <c r="N29" s="71">
         <v>1027470.8864</v>
       </c>
-      <c r="O29" s="76">
+      <c r="O29" s="71">
         <v>99466408.011000007</v>
       </c>
-      <c r="P29" s="76">
+      <c r="P29" s="71">
         <v>130340</v>
       </c>
-      <c r="Q29" s="76">
+      <c r="Q29" s="71">
         <v>121085</v>
       </c>
-      <c r="R29" s="77">
+      <c r="R29" s="72">
         <v>7.6433910063178798</v>
       </c>
-      <c r="S29" s="76">
+      <c r="S29" s="71">
         <v>7.8830051127819498</v>
       </c>
-      <c r="T29" s="76">
+      <c r="T29" s="71">
         <v>7.9716698005533297</v>
       </c>
-      <c r="U29" s="78">
+      <c r="U29" s="73">
         <v>-1.12475745610782</v>
       </c>
     </row>
-    <row r="30" spans="1:21" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="54"/>
-      <c r="B30" s="62" t="s">
+    <row r="30" spans="1:21" ht="12" thickBot="1">
+      <c r="A30" s="74"/>
+      <c r="B30" s="46" t="s">
         <v>28</v>
       </c>
-      <c r="C30" s="51"/>
-      <c r="D30" s="76">
+      <c r="C30" s="47"/>
+      <c r="D30" s="71">
         <v>2749459.9402000001</v>
       </c>
-      <c r="E30" s="76">
+      <c r="E30" s="71">
         <v>4090516.4871</v>
       </c>
-      <c r="F30" s="77">
+      <c r="F30" s="72">
         <v>67.215471417137607</v>
       </c>
-      <c r="G30" s="76">
+      <c r="G30" s="71">
         <v>2535528.9815000002</v>
       </c>
-      <c r="H30" s="77">
+      <c r="H30" s="72">
         <v>8.4373304450828996</v>
       </c>
-      <c r="I30" s="76">
+      <c r="I30" s="71">
         <v>199674.0031</v>
       </c>
-      <c r="J30" s="77">
+      <c r="J30" s="72">
         <v>7.2622990493716904</v>
       </c>
-      <c r="K30" s="76">
+      <c r="K30" s="71">
         <v>205840.97880000001</v>
       </c>
-      <c r="L30" s="77">
+      <c r="L30" s="72">
         <v>8.1182656677119098</v>
       </c>
-      <c r="M30" s="77">
+      <c r="M30" s="72">
         <v>-2.9959902716902999E-2</v>
       </c>
-      <c r="N30" s="76">
+      <c r="N30" s="71">
         <v>2749459.9402000001</v>
       </c>
-      <c r="O30" s="76">
+      <c r="O30" s="71">
         <v>144978384.53909999</v>
       </c>
-      <c r="P30" s="76">
+      <c r="P30" s="71">
         <v>121284</v>
       </c>
-      <c r="Q30" s="76">
+      <c r="Q30" s="71">
         <v>109893</v>
       </c>
-      <c r="R30" s="77">
+      <c r="R30" s="72">
         <v>10.3655373863667</v>
       </c>
-      <c r="S30" s="76">
+      <c r="S30" s="71">
         <v>22.669601433000199</v>
       </c>
-      <c r="T30" s="76">
+      <c r="T30" s="71">
         <v>20.740787673464201</v>
       </c>
-      <c r="U30" s="78">
+      <c r="U30" s="73">
         <v>8.5083708473509496</v>
       </c>
     </row>
-    <row r="31" spans="1:21" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="54"/>
-      <c r="B31" s="62" t="s">
+    <row r="31" spans="1:21" ht="12" thickBot="1">
+      <c r="A31" s="74"/>
+      <c r="B31" s="46" t="s">
         <v>29</v>
       </c>
-      <c r="C31" s="51"/>
-      <c r="D31" s="76">
+      <c r="C31" s="47"/>
+      <c r="D31" s="71">
         <v>10004690.193600001</v>
       </c>
-      <c r="E31" s="76">
+      <c r="E31" s="71">
         <v>8321092.5484999996</v>
       </c>
-      <c r="F31" s="77">
+      <c r="F31" s="72">
         <v>120.23289171808899</v>
       </c>
-      <c r="G31" s="76">
+      <c r="G31" s="71">
         <v>6658183.9457999999</v>
       </c>
-      <c r="H31" s="77">
+      <c r="H31" s="72">
         <v>50.261546917924697</v>
       </c>
-      <c r="I31" s="76">
+      <c r="I31" s="71">
         <v>-582553.03240000003</v>
       </c>
-      <c r="J31" s="77">
+      <c r="J31" s="72">
         <v>-5.8227993183902802</v>
       </c>
-      <c r="K31" s="76">
+      <c r="K31" s="71">
         <v>-377489.80239999999</v>
       </c>
-      <c r="L31" s="77">
+      <c r="L31" s="72">
         <v>-5.6695610315500797</v>
       </c>
-      <c r="M31" s="77">
+      <c r="M31" s="72">
         <v>0.54322852881389505</v>
       </c>
-      <c r="N31" s="76">
+      <c r="N31" s="71">
         <v>10004690.193600001</v>
       </c>
-      <c r="O31" s="76">
+      <c r="O31" s="71">
         <v>169971292.86059999</v>
       </c>
-      <c r="P31" s="76">
+      <c r="P31" s="71">
         <v>109481</v>
       </c>
-      <c r="Q31" s="76">
+      <c r="Q31" s="71">
         <v>29874</v>
       </c>
-      <c r="R31" s="77">
+      <c r="R31" s="72">
         <v>266.47586530093099</v>
       </c>
-      <c r="S31" s="76">
+      <c r="S31" s="71">
         <v>91.382890123400401</v>
       </c>
-      <c r="T31" s="76">
+      <c r="T31" s="71">
         <v>29.7655800562362</v>
       </c>
-      <c r="U31" s="78">
+      <c r="U31" s="73">
         <v>67.427622374339705</v>
       </c>
     </row>
-    <row r="32" spans="1:21" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="54"/>
-      <c r="B32" s="62" t="s">
+    <row r="32" spans="1:21" ht="12" thickBot="1">
+      <c r="A32" s="74"/>
+      <c r="B32" s="46" t="s">
         <v>30</v>
       </c>
-      <c r="C32" s="51"/>
-      <c r="D32" s="76">
+      <c r="C32" s="47"/>
+      <c r="D32" s="71">
         <v>144469.24309999999</v>
       </c>
-      <c r="E32" s="76">
+      <c r="E32" s="71">
         <v>201872.07800000001</v>
       </c>
-      <c r="F32" s="77">
+      <c r="F32" s="72">
         <v>71.5647476021919</v>
       </c>
-      <c r="G32" s="76">
+      <c r="G32" s="71">
         <v>159427.87229999999</v>
       </c>
-      <c r="H32" s="77">
+      <c r="H32" s="72">
         <v>-9.3826938691447292</v>
       </c>
-      <c r="I32" s="76">
+      <c r="I32" s="71">
         <v>35594.120799999997</v>
       </c>
-      <c r="J32" s="77">
+      <c r="J32" s="72">
         <v>24.637853730127301</v>
       </c>
-      <c r="K32" s="76">
+      <c r="K32" s="71">
         <v>42149.826800000003</v>
       </c>
-      <c r="L32" s="77">
+      <c r="L32" s="72">
         <v>26.438179342120002</v>
       </c>
-      <c r="M32" s="77">
+      <c r="M32" s="72">
         <v>-0.15553340304591701</v>
       </c>
-      <c r="N32" s="76">
+      <c r="N32" s="71">
         <v>144469.24309999999</v>
       </c>
-      <c r="O32" s="76">
+      <c r="O32" s="71">
         <v>15546860.9101</v>
       </c>
-      <c r="P32" s="76">
+      <c r="P32" s="71">
         <v>28933</v>
       </c>
-      <c r="Q32" s="76">
+      <c r="Q32" s="71">
         <v>26388</v>
       </c>
-      <c r="R32" s="77">
+      <c r="R32" s="72">
         <v>9.6445353948764598</v>
       </c>
-      <c r="S32" s="76">
+      <c r="S32" s="71">
         <v>4.9932341305775401</v>
       </c>
-      <c r="T32" s="76">
+      <c r="T32" s="71">
         <v>4.9914708238593297</v>
       </c>
-      <c r="U32" s="78">
+      <c r="U32" s="73">
         <v>3.5313920238833001E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:21" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="54"/>
-      <c r="B33" s="62" t="s">
+    <row r="33" spans="1:21" ht="12" thickBot="1">
+      <c r="A33" s="74"/>
+      <c r="B33" s="46" t="s">
         <v>74</v>
       </c>
-      <c r="C33" s="51"/>
-      <c r="D33" s="79"/>
-      <c r="E33" s="79"/>
-      <c r="F33" s="79"/>
-      <c r="G33" s="76">
+      <c r="C33" s="47"/>
+      <c r="D33" s="75"/>
+      <c r="E33" s="75"/>
+      <c r="F33" s="75"/>
+      <c r="G33" s="71">
         <v>2.1238999999999999</v>
       </c>
-      <c r="H33" s="79"/>
-      <c r="I33" s="79"/>
-      <c r="J33" s="79"/>
-      <c r="K33" s="76">
+      <c r="H33" s="75"/>
+      <c r="I33" s="75"/>
+      <c r="J33" s="75"/>
+      <c r="K33" s="71">
         <v>0.38390000000000002</v>
       </c>
-      <c r="L33" s="77">
+      <c r="L33" s="72">
         <v>18.075238947219699</v>
       </c>
-      <c r="M33" s="79"/>
-      <c r="N33" s="79"/>
-      <c r="O33" s="76">
+      <c r="M33" s="75"/>
+      <c r="N33" s="75"/>
+      <c r="O33" s="71">
         <v>301.12830000000002</v>
       </c>
-      <c r="P33" s="79"/>
-      <c r="Q33" s="79"/>
-      <c r="R33" s="79"/>
-      <c r="S33" s="79"/>
-      <c r="T33" s="79"/>
-      <c r="U33" s="80"/>
+      <c r="P33" s="75"/>
+      <c r="Q33" s="75"/>
+      <c r="R33" s="75"/>
+      <c r="S33" s="75"/>
+      <c r="T33" s="75"/>
+      <c r="U33" s="76"/>
     </row>
-    <row r="34" spans="1:21" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="54"/>
-      <c r="B34" s="62" t="s">
+    <row r="34" spans="1:21" ht="12" thickBot="1">
+      <c r="A34" s="74"/>
+      <c r="B34" s="46" t="s">
         <v>31</v>
       </c>
-      <c r="C34" s="51"/>
-      <c r="D34" s="76">
+      <c r="C34" s="47"/>
+      <c r="D34" s="71">
         <v>307647.86599999998</v>
       </c>
-      <c r="E34" s="76">
+      <c r="E34" s="71">
         <v>370961.79599999997</v>
       </c>
-      <c r="F34" s="77">
+      <c r="F34" s="72">
         <v>82.932493134683895</v>
       </c>
-      <c r="G34" s="76">
+      <c r="G34" s="71">
         <v>333818.04820000002</v>
       </c>
-      <c r="H34" s="77">
+      <c r="H34" s="72">
         <v>-7.8396546684979302</v>
       </c>
-      <c r="I34" s="76">
+      <c r="I34" s="71">
         <v>5947.8877000000002</v>
       </c>
-      <c r="J34" s="77">
+      <c r="J34" s="72">
         <v>1.9333427458261601</v>
       </c>
-      <c r="K34" s="76">
+      <c r="K34" s="71">
         <v>11074.250899999999</v>
       </c>
-      <c r="L34" s="77">
+      <c r="L34" s="72">
         <v>3.31745121622816</v>
       </c>
-      <c r="M34" s="77">
+      <c r="M34" s="72">
         <v>-0.462908348952072</v>
       </c>
-      <c r="N34" s="76">
+      <c r="N34" s="71">
         <v>307647.86599999998</v>
       </c>
-      <c r="O34" s="76">
+      <c r="O34" s="71">
         <v>27127644.592599999</v>
       </c>
-      <c r="P34" s="76">
+      <c r="P34" s="71">
         <v>18978</v>
       </c>
-      <c r="Q34" s="76">
+      <c r="Q34" s="71">
         <v>17483</v>
       </c>
-      <c r="R34" s="77">
+      <c r="R34" s="72">
         <v>8.5511639878739505</v>
       </c>
-      <c r="S34" s="76">
+      <c r="S34" s="71">
         <v>16.210763304879301</v>
       </c>
-      <c r="T34" s="76">
+      <c r="T34" s="71">
         <v>15.5448841388778</v>
       </c>
-      <c r="U34" s="78">
+      <c r="U34" s="73">
         <v>4.1076361024970698</v>
       </c>
     </row>
-    <row r="35" spans="1:21" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="54"/>
-      <c r="B35" s="62" t="s">
+    <row r="35" spans="1:21" ht="12" thickBot="1">
+      <c r="A35" s="74"/>
+      <c r="B35" s="46" t="s">
         <v>77</v>
       </c>
-      <c r="C35" s="51"/>
-      <c r="D35" s="76">
+      <c r="C35" s="47"/>
+      <c r="D35" s="71">
         <v>7096.2231000000002</v>
       </c>
-      <c r="E35" s="79"/>
-      <c r="F35" s="79"/>
-      <c r="G35" s="79"/>
-      <c r="H35" s="79"/>
-      <c r="I35" s="76">
+      <c r="E35" s="75"/>
+      <c r="F35" s="75"/>
+      <c r="G35" s="75"/>
+      <c r="H35" s="75"/>
+      <c r="I35" s="71">
         <v>444.94940000000003</v>
       </c>
-      <c r="J35" s="77">
+      <c r="J35" s="72">
         <v>6.2702284543449602</v>
       </c>
-      <c r="K35" s="79"/>
-      <c r="L35" s="79"/>
-      <c r="M35" s="79"/>
-      <c r="N35" s="76">
+      <c r="K35" s="75"/>
+      <c r="L35" s="75"/>
+      <c r="M35" s="75"/>
+      <c r="N35" s="71">
         <v>7096.2231000000002</v>
       </c>
-      <c r="O35" s="76">
+      <c r="O35" s="71">
         <v>10010.6674</v>
       </c>
-      <c r="P35" s="76">
+      <c r="P35" s="71">
         <v>795</v>
       </c>
-      <c r="Q35" s="76">
+      <c r="Q35" s="71">
         <v>164</v>
       </c>
-      <c r="R35" s="77">
+      <c r="R35" s="72">
         <v>384.756097560976</v>
       </c>
-      <c r="S35" s="76">
+      <c r="S35" s="71">
         <v>8.9260667924528292</v>
       </c>
-      <c r="T35" s="76">
+      <c r="T35" s="71">
         <v>9.2985176829268301</v>
       </c>
-      <c r="U35" s="78">
+      <c r="U35" s="73">
         <v>-4.1726204736549102</v>
       </c>
     </row>
-    <row r="36" spans="1:21" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="54"/>
-      <c r="B36" s="62" t="s">
+    <row r="36" spans="1:21" ht="12" thickBot="1">
+      <c r="A36" s="74"/>
+      <c r="B36" s="46" t="s">
         <v>68</v>
       </c>
-      <c r="C36" s="51"/>
-      <c r="D36" s="76">
+      <c r="C36" s="47"/>
+      <c r="D36" s="71">
         <v>423059.9</v>
       </c>
-      <c r="E36" s="79"/>
-      <c r="F36" s="79"/>
-      <c r="G36" s="76">
+      <c r="E36" s="75"/>
+      <c r="F36" s="75"/>
+      <c r="G36" s="71">
         <v>350330.07</v>
       </c>
-      <c r="H36" s="77">
+      <c r="H36" s="72">
         <v>20.760373210327</v>
       </c>
-      <c r="I36" s="76">
+      <c r="I36" s="71">
         <v>-3224.93</v>
       </c>
-      <c r="J36" s="77">
+      <c r="J36" s="72">
         <v>-0.76228685346921299</v>
       </c>
-      <c r="K36" s="76">
+      <c r="K36" s="71">
         <v>13244.11</v>
       </c>
-      <c r="L36" s="77">
+      <c r="L36" s="72">
         <v>3.7804662328871701</v>
       </c>
-      <c r="M36" s="77">
+      <c r="M36" s="72">
         <v>-1.24349918567575</v>
       </c>
-      <c r="N36" s="76">
+      <c r="N36" s="71">
         <v>423059.9</v>
       </c>
-      <c r="O36" s="76">
+      <c r="O36" s="71">
         <v>20317660.579999998</v>
       </c>
-      <c r="P36" s="76">
+      <c r="P36" s="71">
         <v>218</v>
       </c>
-      <c r="Q36" s="76">
+      <c r="Q36" s="71">
         <v>155</v>
       </c>
-      <c r="R36" s="77">
+      <c r="R36" s="72">
         <v>40.645161290322598</v>
       </c>
-      <c r="S36" s="76">
+      <c r="S36" s="71">
         <v>1940.6417431192699</v>
       </c>
-      <c r="T36" s="76">
+      <c r="T36" s="71">
         <v>1657.2818709677399</v>
       </c>
-      <c r="U36" s="78">
+      <c r="U36" s="73">
         <v>14.601348917501401</v>
       </c>
     </row>
-    <row r="37" spans="1:21" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="54"/>
-      <c r="B37" s="62" t="s">
+    <row r="37" spans="1:21" ht="12" thickBot="1">
+      <c r="A37" s="74"/>
+      <c r="B37" s="46" t="s">
         <v>35</v>
       </c>
-      <c r="C37" s="51"/>
-      <c r="D37" s="76">
-        <v>2042434.91</v>
-      </c>
-      <c r="E37" s="79"/>
-      <c r="F37" s="79"/>
-      <c r="G37" s="76">
+      <c r="C37" s="47"/>
+      <c r="D37" s="71">
+        <v>2065951.14</v>
+      </c>
+      <c r="E37" s="75"/>
+      <c r="F37" s="75"/>
+      <c r="G37" s="71">
         <v>3115400.26</v>
       </c>
-      <c r="H37" s="77">
-        <v>-34.440690134628198</v>
-      </c>
-      <c r="I37" s="76">
-        <v>-358846.13</v>
-      </c>
-      <c r="J37" s="77">
-        <v>-17.569525875368001</v>
-      </c>
-      <c r="K37" s="76">
+      <c r="H37" s="72">
+        <v>-33.685851974603104</v>
+      </c>
+      <c r="I37" s="71">
+        <v>-368222.21</v>
+      </c>
+      <c r="J37" s="72">
+        <v>-17.823374564414902</v>
+      </c>
+      <c r="K37" s="71">
         <v>-596546.97</v>
       </c>
-      <c r="L37" s="77">
+      <c r="L37" s="72">
         <v>-19.148325101571402</v>
       </c>
-      <c r="M37" s="77">
-        <v>-0.398461230973983</v>
-      </c>
-      <c r="N37" s="76">
-        <v>2042434.91</v>
-      </c>
-      <c r="O37" s="76">
-        <v>61257606.530000001</v>
-      </c>
-      <c r="P37" s="76">
+      <c r="M37" s="72">
+        <v>-0.38274397739376698</v>
+      </c>
+      <c r="N37" s="71">
+        <v>2065951.14</v>
+      </c>
+      <c r="O37" s="71">
+        <v>61323416.799999997</v>
+      </c>
+      <c r="P37" s="71">
         <v>764</v>
       </c>
-      <c r="Q37" s="76">
+      <c r="Q37" s="71">
         <v>447</v>
       </c>
-      <c r="R37" s="77">
+      <c r="R37" s="72">
         <v>70.917225950783006</v>
       </c>
-      <c r="S37" s="76">
-        <v>2673.3441230366502</v>
-      </c>
-      <c r="T37" s="76">
-        <v>2543.2245637583901</v>
-      </c>
-      <c r="U37" s="78">
-        <v>4.8672955403308702</v>
+      <c r="S37" s="71">
+        <v>2704.12452879581</v>
+      </c>
+      <c r="T37" s="71">
+        <v>2571.8981655481002</v>
+      </c>
+      <c r="U37" s="73">
+        <v>4.88980303383424</v>
       </c>
     </row>
-    <row r="38" spans="1:21" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="54"/>
-      <c r="B38" s="62" t="s">
+    <row r="38" spans="1:21" ht="12" thickBot="1">
+      <c r="A38" s="74"/>
+      <c r="B38" s="46" t="s">
         <v>36</v>
       </c>
-      <c r="C38" s="51"/>
-      <c r="D38" s="76">
-        <v>2343676.92</v>
-      </c>
-      <c r="E38" s="79"/>
-      <c r="F38" s="79"/>
-      <c r="G38" s="76">
+      <c r="C38" s="47"/>
+      <c r="D38" s="71">
+        <v>2405863.23</v>
+      </c>
+      <c r="E38" s="75"/>
+      <c r="F38" s="75"/>
+      <c r="G38" s="71">
         <v>5661628.8099999996</v>
       </c>
-      <c r="H38" s="77">
-        <v>-58.604193269251098</v>
-      </c>
-      <c r="I38" s="76">
-        <v>-297388.88</v>
-      </c>
-      <c r="J38" s="77">
-        <v>-12.688987866126199</v>
-      </c>
-      <c r="K38" s="76">
+      <c r="H38" s="72">
+        <v>-57.505811300264298</v>
+      </c>
+      <c r="I38" s="71">
+        <v>-304878.67</v>
+      </c>
+      <c r="J38" s="72">
+        <v>-12.672319282256099</v>
+      </c>
+      <c r="K38" s="71">
         <v>-677197.16</v>
       </c>
-      <c r="L38" s="77">
+      <c r="L38" s="72">
         <v>-11.9611720006067</v>
       </c>
-      <c r="M38" s="77">
-        <v>-0.560853326673727</v>
-      </c>
-      <c r="N38" s="76">
-        <v>2343676.92</v>
-      </c>
-      <c r="O38" s="76">
-        <v>32839136.199999999</v>
-      </c>
-      <c r="P38" s="76">
+      <c r="M38" s="72">
+        <v>-0.54979334231112298</v>
+      </c>
+      <c r="N38" s="71">
+        <v>2405863.23</v>
+      </c>
+      <c r="O38" s="71">
+        <v>33021336.199999999</v>
+      </c>
+      <c r="P38" s="71">
         <v>877</v>
       </c>
-      <c r="Q38" s="76">
+      <c r="Q38" s="71">
         <v>626</v>
       </c>
-      <c r="R38" s="77">
+      <c r="R38" s="72">
         <v>40.095846645367402</v>
       </c>
-      <c r="S38" s="76">
-        <v>2672.3796123147099</v>
-      </c>
-      <c r="T38" s="76">
-        <v>2536.4663578274799</v>
-      </c>
-      <c r="U38" s="78">
-        <v>5.0858513461532704</v>
+      <c r="S38" s="71">
+        <v>2743.2876054732001</v>
+      </c>
+      <c r="T38" s="71">
+        <v>2576.6851437699702</v>
+      </c>
+      <c r="U38" s="73">
+        <v>6.0730949744694396</v>
       </c>
     </row>
-    <row r="39" spans="1:21" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="54"/>
-      <c r="B39" s="62" t="s">
+    <row r="39" spans="1:21" ht="12" thickBot="1">
+      <c r="A39" s="74"/>
+      <c r="B39" s="46" t="s">
         <v>37</v>
       </c>
-      <c r="C39" s="51"/>
-      <c r="D39" s="76">
-        <v>1612111.89</v>
-      </c>
-      <c r="E39" s="79"/>
-      <c r="F39" s="79"/>
-      <c r="G39" s="76">
+      <c r="C39" s="47"/>
+      <c r="D39" s="71">
+        <v>1635567.47</v>
+      </c>
+      <c r="E39" s="75"/>
+      <c r="F39" s="75"/>
+      <c r="G39" s="71">
         <v>2702839.82</v>
       </c>
-      <c r="H39" s="77">
-        <v>-40.354886069423102</v>
-      </c>
-      <c r="I39" s="76">
-        <v>-374167.21</v>
-      </c>
-      <c r="J39" s="77">
-        <v>-23.209754380013901</v>
-      </c>
-      <c r="K39" s="76">
+      <c r="H39" s="72">
+        <v>-39.487073636498401</v>
+      </c>
+      <c r="I39" s="71">
+        <v>-377958.65</v>
+      </c>
+      <c r="J39" s="72">
+        <v>-23.108716511707101</v>
+      </c>
+      <c r="K39" s="71">
         <v>-542942.74</v>
       </c>
-      <c r="L39" s="77">
+      <c r="L39" s="72">
         <v>-20.087862254449099</v>
       </c>
-      <c r="M39" s="77">
-        <v>-0.31085327708774602</v>
-      </c>
-      <c r="N39" s="76">
-        <v>1612111.89</v>
-      </c>
-      <c r="O39" s="76">
-        <v>35931077.170000002</v>
-      </c>
-      <c r="P39" s="76">
+      <c r="M39" s="72">
+        <v>-0.303870146601463</v>
+      </c>
+      <c r="N39" s="71">
+        <v>1635567.47</v>
+      </c>
+      <c r="O39" s="71">
+        <v>35999608.840000004</v>
+      </c>
+      <c r="P39" s="71">
         <v>696</v>
       </c>
-      <c r="Q39" s="76">
+      <c r="Q39" s="71">
         <v>400</v>
       </c>
-      <c r="R39" s="77">
+      <c r="R39" s="72">
         <v>74</v>
       </c>
-      <c r="S39" s="76">
-        <v>2316.2527155172402</v>
-      </c>
-      <c r="T39" s="76">
-        <v>2254.43905</v>
-      </c>
-      <c r="U39" s="78">
-        <v>2.6686926302615501</v>
+      <c r="S39" s="71">
+        <v>2349.95326149425</v>
+      </c>
+      <c r="T39" s="71">
+        <v>2295.0288</v>
+      </c>
+      <c r="U39" s="73">
+        <v>2.3372576124908999</v>
       </c>
     </row>
-    <row r="40" spans="1:21" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="54"/>
-      <c r="B40" s="62" t="s">
+    <row r="40" spans="1:21" ht="12" thickBot="1">
+      <c r="A40" s="74"/>
+      <c r="B40" s="46" t="s">
         <v>70</v>
       </c>
-      <c r="C40" s="51"/>
-      <c r="D40" s="76">
+      <c r="C40" s="47"/>
+      <c r="D40" s="71">
         <v>0.18</v>
       </c>
-      <c r="E40" s="79"/>
-      <c r="F40" s="79"/>
-      <c r="G40" s="76">
+      <c r="E40" s="75"/>
+      <c r="F40" s="75"/>
+      <c r="G40" s="71">
         <v>4.1100000000000003</v>
       </c>
-      <c r="H40" s="77">
+      <c r="H40" s="72">
         <v>-95.620437956204398</v>
       </c>
-      <c r="I40" s="76">
+      <c r="I40" s="71">
         <v>-717.77</v>
       </c>
-      <c r="J40" s="77">
+      <c r="J40" s="72">
         <v>-398761.11111111101</v>
       </c>
-      <c r="K40" s="76">
+      <c r="K40" s="71">
         <v>4.09</v>
       </c>
-      <c r="L40" s="77">
+      <c r="L40" s="72">
         <v>99.513381995133798</v>
       </c>
-      <c r="M40" s="77">
+      <c r="M40" s="72">
         <v>-176.49388753056201</v>
       </c>
-      <c r="N40" s="76">
+      <c r="N40" s="71">
         <v>0.18</v>
       </c>
-      <c r="O40" s="76">
+      <c r="O40" s="71">
         <v>1244.6300000000001</v>
       </c>
-      <c r="P40" s="76">
+      <c r="P40" s="71">
         <v>4</v>
       </c>
-      <c r="Q40" s="76">
+      <c r="Q40" s="71">
         <v>2</v>
       </c>
-      <c r="R40" s="77">
+      <c r="R40" s="72">
         <v>100</v>
       </c>
-      <c r="S40" s="76">
+      <c r="S40" s="71">
         <v>4.4999999999999998E-2</v>
       </c>
-      <c r="T40" s="76">
+      <c r="T40" s="71">
         <v>0.01</v>
       </c>
-      <c r="U40" s="78">
+      <c r="U40" s="73">
         <v>77.7777777777778</v>
       </c>
     </row>
-    <row r="41" spans="1:21" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="54"/>
-      <c r="B41" s="62" t="s">
+    <row r="41" spans="1:21" ht="12" thickBot="1">
+      <c r="A41" s="74"/>
+      <c r="B41" s="46" t="s">
         <v>32</v>
       </c>
-      <c r="C41" s="51"/>
-      <c r="D41" s="76">
+      <c r="C41" s="47"/>
+      <c r="D41" s="71">
         <v>162905.55549999999</v>
       </c>
-      <c r="E41" s="79"/>
-      <c r="F41" s="79"/>
-      <c r="G41" s="76">
+      <c r="E41" s="75"/>
+      <c r="F41" s="75"/>
+      <c r="G41" s="71">
         <v>446559.82939999999</v>
       </c>
-      <c r="H41" s="77">
+      <c r="H41" s="72">
         <v>-63.519881374264997</v>
       </c>
-      <c r="I41" s="76">
+      <c r="I41" s="71">
         <v>11070.420599999999</v>
       </c>
-      <c r="J41" s="77">
+      <c r="J41" s="72">
         <v>6.7956065500786398</v>
       </c>
-      <c r="K41" s="76">
+      <c r="K41" s="71">
         <v>21686.2958</v>
       </c>
-      <c r="L41" s="77">
+      <c r="L41" s="72">
         <v>4.8563024195745097</v>
       </c>
-      <c r="M41" s="77">
+      <c r="M41" s="72">
         <v>-0.48951998524340001</v>
       </c>
-      <c r="N41" s="76">
+      <c r="N41" s="71">
         <v>162905.55549999999</v>
       </c>
-      <c r="O41" s="76">
+      <c r="O41" s="71">
         <v>11623660.8517</v>
       </c>
-      <c r="P41" s="76">
+      <c r="P41" s="71">
         <v>228</v>
       </c>
-      <c r="Q41" s="76">
+      <c r="Q41" s="71">
         <v>146</v>
       </c>
-      <c r="R41" s="77">
+      <c r="R41" s="72">
         <v>56.164383561643803</v>
       </c>
-      <c r="S41" s="76">
+      <c r="S41" s="71">
         <v>714.49805043859703</v>
       </c>
-      <c r="T41" s="76">
+      <c r="T41" s="71">
         <v>727.30359726027405</v>
       </c>
-      <c r="U41" s="78">
+      <c r="U41" s="73">
         <v>-1.7922437736277601</v>
       </c>
     </row>
-    <row r="42" spans="1:21" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="54"/>
-      <c r="B42" s="62" t="s">
+    <row r="42" spans="1:21" ht="12" thickBot="1">
+      <c r="A42" s="74"/>
+      <c r="B42" s="46" t="s">
         <v>33</v>
       </c>
-      <c r="C42" s="51"/>
-      <c r="D42" s="76">
+      <c r="C42" s="47"/>
+      <c r="D42" s="71">
         <v>754081.5797</v>
       </c>
-      <c r="E42" s="76">
+      <c r="E42" s="71">
         <v>3067577.0636</v>
       </c>
-      <c r="F42" s="77">
+      <c r="F42" s="72">
         <v>24.582319011573102</v>
       </c>
-      <c r="G42" s="76">
+      <c r="G42" s="71">
         <v>1183196.4147000001</v>
       </c>
-      <c r="H42" s="77">
+      <c r="H42" s="72">
         <v>-36.267421847183499</v>
       </c>
-      <c r="I42" s="76">
+      <c r="I42" s="71">
         <v>14314.8192</v>
       </c>
-      <c r="J42" s="77">
+      <c r="J42" s="72">
         <v>1.89831174575235</v>
       </c>
-      <c r="K42" s="76">
+      <c r="K42" s="71">
         <v>34716.113700000002</v>
       </c>
-      <c r="L42" s="77">
+      <c r="L42" s="72">
         <v>2.9340955794564598</v>
       </c>
-      <c r="M42" s="77">
+      <c r="M42" s="72">
         <v>-0.587660666061248</v>
       </c>
-      <c r="N42" s="76">
+      <c r="N42" s="71">
         <v>754081.5797</v>
       </c>
-      <c r="O42" s="76">
+      <c r="O42" s="71">
         <v>66946455.326899998</v>
       </c>
-      <c r="P42" s="76">
+      <c r="P42" s="71">
         <v>2781</v>
       </c>
-      <c r="Q42" s="76">
+      <c r="Q42" s="71">
         <v>2176</v>
       </c>
-      <c r="R42" s="77">
+      <c r="R42" s="72">
         <v>27.803308823529399</v>
       </c>
-      <c r="S42" s="76">
+      <c r="S42" s="71">
         <v>271.15482909025502</v>
       </c>
-      <c r="T42" s="76">
+      <c r="T42" s="71">
         <v>485.22782454044102</v>
       </c>
-      <c r="U42" s="78">
+      <c r="U42" s="73">
         <v>-78.9486199336433</v>
       </c>
     </row>
-    <row r="43" spans="1:21" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="54"/>
-      <c r="B43" s="62" t="s">
+    <row r="43" spans="1:21" ht="12" thickBot="1">
+      <c r="A43" s="74"/>
+      <c r="B43" s="46" t="s">
         <v>38</v>
       </c>
-      <c r="C43" s="51"/>
-      <c r="D43" s="76">
-        <v>1062793.32</v>
-      </c>
-      <c r="E43" s="79"/>
-      <c r="F43" s="79"/>
-      <c r="G43" s="76">
+      <c r="C43" s="47"/>
+      <c r="D43" s="71">
+        <v>1090240.33</v>
+      </c>
+      <c r="E43" s="75"/>
+      <c r="F43" s="75"/>
+      <c r="G43" s="71">
         <v>1522985.23</v>
       </c>
-      <c r="H43" s="77">
-        <v>-30.216439459495</v>
-      </c>
-      <c r="I43" s="76">
-        <v>-225822.98</v>
-      </c>
-      <c r="J43" s="77">
-        <v>-21.248061664520101</v>
-      </c>
-      <c r="K43" s="76">
+      <c r="H43" s="72">
+        <v>-28.414254549271</v>
+      </c>
+      <c r="I43" s="71">
+        <v>-235369.99</v>
+      </c>
+      <c r="J43" s="72">
+        <v>-21.5888170271595</v>
+      </c>
+      <c r="K43" s="71">
         <v>-241709.47</v>
       </c>
-      <c r="L43" s="77">
+      <c r="L43" s="72">
         <v>-15.870769147249099</v>
       </c>
-      <c r="M43" s="77">
-        <v>-6.5725558870324996E-2</v>
-      </c>
-      <c r="N43" s="76">
-        <v>1062793.32</v>
-      </c>
-      <c r="O43" s="76">
-        <v>29078236.41</v>
-      </c>
-      <c r="P43" s="76">
+      <c r="M43" s="72">
+        <v>-2.6227685659151002E-2</v>
+      </c>
+      <c r="N43" s="71">
+        <v>1090240.33</v>
+      </c>
+      <c r="O43" s="71">
+        <v>29143905.640000001</v>
+      </c>
+      <c r="P43" s="71">
         <v>614</v>
       </c>
-      <c r="Q43" s="76">
+      <c r="Q43" s="71">
         <v>355</v>
       </c>
-      <c r="R43" s="77">
+      <c r="R43" s="72">
         <v>72.957746478873204</v>
       </c>
-      <c r="S43" s="76">
-        <v>1730.9337459283399</v>
-      </c>
-      <c r="T43" s="76">
-        <v>1725.78563380282</v>
-      </c>
-      <c r="U43" s="78">
-        <v>0.29741820781018202</v>
+      <c r="S43" s="71">
+        <v>1775.6357166123801</v>
+      </c>
+      <c r="T43" s="71">
+        <v>1761.7794084507</v>
+      </c>
+      <c r="U43" s="73">
+        <v>0.78035759429921303</v>
       </c>
     </row>
-    <row r="44" spans="1:21" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="54"/>
-      <c r="B44" s="62" t="s">
+    <row r="44" spans="1:21" ht="12" thickBot="1">
+      <c r="A44" s="74"/>
+      <c r="B44" s="46" t="s">
         <v>39</v>
       </c>
-      <c r="C44" s="51"/>
-      <c r="D44" s="76">
-        <v>508738.58</v>
-      </c>
-      <c r="E44" s="79"/>
-      <c r="F44" s="79"/>
-      <c r="G44" s="76">
+      <c r="C44" s="47"/>
+      <c r="D44" s="71">
+        <v>509506.96</v>
+      </c>
+      <c r="E44" s="75"/>
+      <c r="F44" s="75"/>
+      <c r="G44" s="71">
         <v>618652.27</v>
       </c>
-      <c r="H44" s="77">
-        <v>-17.766634881983101</v>
-      </c>
-      <c r="I44" s="76">
-        <v>61313.35</v>
-      </c>
-      <c r="J44" s="77">
-        <v>12.0520346618886</v>
-      </c>
-      <c r="K44" s="76">
+      <c r="H44" s="72">
+        <v>-17.642432638289701</v>
+      </c>
+      <c r="I44" s="71">
+        <v>61420.93</v>
+      </c>
+      <c r="J44" s="72">
+        <v>12.0549736945694</v>
+      </c>
+      <c r="K44" s="71">
         <v>75601.34</v>
       </c>
-      <c r="L44" s="77">
+      <c r="L44" s="72">
         <v>12.220328553874101</v>
       </c>
-      <c r="M44" s="77">
-        <v>-0.18899122687507899</v>
-      </c>
-      <c r="N44" s="76">
-        <v>508738.58</v>
-      </c>
-      <c r="O44" s="76">
-        <v>11225110.039999999</v>
-      </c>
-      <c r="P44" s="76">
+      <c r="M44" s="72">
+        <v>-0.18756823622438401</v>
+      </c>
+      <c r="N44" s="71">
+        <v>509506.96</v>
+      </c>
+      <c r="O44" s="71">
+        <v>11225878.42</v>
+      </c>
+      <c r="P44" s="71">
         <v>342</v>
       </c>
-      <c r="Q44" s="76">
+      <c r="Q44" s="71">
         <v>189</v>
       </c>
-      <c r="R44" s="77">
+      <c r="R44" s="72">
         <v>80.952380952381006</v>
       </c>
-      <c r="S44" s="76">
-        <v>1487.5397076023401</v>
-      </c>
-      <c r="T44" s="76">
+      <c r="S44" s="71">
+        <v>1489.7864327485399</v>
+      </c>
+      <c r="T44" s="71">
         <v>1446.45412698413</v>
       </c>
-      <c r="U44" s="78">
-        <v>2.7619821110143898</v>
+      <c r="U44" s="73">
+        <v>2.9086253446721502</v>
       </c>
     </row>
-    <row r="45" spans="1:21" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="54"/>
-      <c r="B45" s="62" t="s">
+    <row r="45" spans="1:21" ht="12" thickBot="1">
+      <c r="A45" s="74"/>
+      <c r="B45" s="46" t="s">
         <v>76</v>
       </c>
-      <c r="C45" s="51"/>
-      <c r="D45" s="79"/>
-      <c r="E45" s="79"/>
-      <c r="F45" s="79"/>
-      <c r="G45" s="79"/>
-      <c r="H45" s="79"/>
-      <c r="I45" s="79"/>
-      <c r="J45" s="79"/>
-      <c r="K45" s="79"/>
-      <c r="L45" s="79"/>
-      <c r="M45" s="79"/>
-      <c r="N45" s="79"/>
-      <c r="O45" s="76">
+      <c r="C45" s="47"/>
+      <c r="D45" s="75"/>
+      <c r="E45" s="75"/>
+      <c r="F45" s="75"/>
+      <c r="G45" s="75"/>
+      <c r="H45" s="75"/>
+      <c r="I45" s="75"/>
+      <c r="J45" s="75"/>
+      <c r="K45" s="75"/>
+      <c r="L45" s="75"/>
+      <c r="M45" s="75"/>
+      <c r="N45" s="75"/>
+      <c r="O45" s="71">
         <v>-695.12810000000002</v>
       </c>
-      <c r="P45" s="79"/>
-      <c r="Q45" s="79"/>
-      <c r="R45" s="79"/>
-      <c r="S45" s="79"/>
-      <c r="T45" s="79"/>
-      <c r="U45" s="80"/>
+      <c r="P45" s="75"/>
+      <c r="Q45" s="75"/>
+      <c r="R45" s="75"/>
+      <c r="S45" s="75"/>
+      <c r="T45" s="75"/>
+      <c r="U45" s="76"/>
     </row>
-    <row r="46" spans="1:21" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="55"/>
-      <c r="B46" s="62" t="s">
+    <row r="46" spans="1:21" ht="12" thickBot="1">
+      <c r="A46" s="77"/>
+      <c r="B46" s="46" t="s">
         <v>34</v>
       </c>
-      <c r="C46" s="51"/>
-      <c r="D46" s="81">
+      <c r="C46" s="47"/>
+      <c r="D46" s="78">
         <v>23151.8531</v>
       </c>
-      <c r="E46" s="82"/>
-      <c r="F46" s="82"/>
-      <c r="G46" s="81">
+      <c r="E46" s="79"/>
+      <c r="F46" s="79"/>
+      <c r="G46" s="78">
         <v>11157.054</v>
       </c>
-      <c r="H46" s="83">
+      <c r="H46" s="80">
         <v>107.508658647704</v>
       </c>
-      <c r="I46" s="81">
+      <c r="I46" s="78">
         <v>1408.0345</v>
       </c>
-      <c r="J46" s="83">
+      <c r="J46" s="80">
         <v>6.08173563437132</v>
       </c>
-      <c r="K46" s="81">
+      <c r="K46" s="78">
         <v>1512.3109999999999</v>
       </c>
-      <c r="L46" s="83">
+      <c r="L46" s="80">
         <v>13.5547519981529</v>
       </c>
-      <c r="M46" s="83">
+      <c r="M46" s="80">
         <v>-6.8951756616198998E-2</v>
       </c>
-      <c r="N46" s="81">
+      <c r="N46" s="78">
         <v>23151.8531</v>
       </c>
-      <c r="O46" s="81">
+      <c r="O46" s="78">
         <v>4043166.2064</v>
       </c>
-      <c r="P46" s="81">
+      <c r="P46" s="78">
         <v>12</v>
       </c>
-      <c r="Q46" s="81">
+      <c r="Q46" s="78">
         <v>20</v>
       </c>
-      <c r="R46" s="83">
+      <c r="R46" s="80">
         <v>-40</v>
       </c>
-      <c r="S46" s="81">
+      <c r="S46" s="78">
         <v>1929.3210916666701</v>
       </c>
-      <c r="T46" s="81">
+      <c r="T46" s="78">
         <v>2230.3671899999999</v>
       </c>
-      <c r="U46" s="84">
+      <c r="U46" s="81">
         <v>-15.603732299078899</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="44">
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B35:C35"/>
     <mergeCell ref="B18:C18"/>
     <mergeCell ref="A1:U4"/>
     <mergeCell ref="W1:W4"/>
@@ -58434,34 +58502,6 @@
     <mergeCell ref="B15:C15"/>
     <mergeCell ref="B16:C16"/>
     <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B24:C24"/>
   </mergeCells>
   <phoneticPr fontId="36" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -58471,7 +58511,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:H63"/>
   <sheetViews>
@@ -58479,7 +58519,7 @@
       <selection activeCell="B34" sqref="B34:E40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="3.140625" style="28" customWidth="1"/>
     <col min="2" max="2" width="5.28515625" style="29" customWidth="1"/>
@@ -58489,7 +58529,7 @@
     <col min="9" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8">
       <c r="A1" s="38" t="s">
         <v>72</v>
       </c>
@@ -58515,7 +58555,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8">
       <c r="A2" s="37">
         <v>1</v>
       </c>
@@ -58541,7 +58581,7 @@
         <v>-3.2922292787177697E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8">
       <c r="A3" s="37">
         <v>2</v>
       </c>
@@ -58567,7 +58607,7 @@
         <v>0.20548540845527599</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8">
       <c r="A4" s="37">
         <v>3</v>
       </c>
@@ -58593,7 +58633,7 @@
         <v>0.20694548013207401</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8">
       <c r="A5" s="37">
         <v>4</v>
       </c>
@@ -58619,7 +58659,7 @@
         <v>-4.1106154870872699E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8">
       <c r="A6" s="37">
         <v>5</v>
       </c>
@@ -58645,7 +58685,7 @@
         <v>0.14732376016349499</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8">
       <c r="A7" s="37">
         <v>6</v>
       </c>
@@ -58671,7 +58711,7 @@
         <v>0.23280146277962499</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8">
       <c r="A8" s="37">
         <v>7</v>
       </c>
@@ -58697,7 +58737,7 @@
         <v>0.12763117836100199</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8">
       <c r="A9" s="37">
         <v>8</v>
       </c>
@@ -58723,7 +58763,7 @@
         <v>6.5169616398496999E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8">
       <c r="A10" s="37">
         <v>9</v>
       </c>
@@ -58749,7 +58789,7 @@
         <v>-4.2927307783549501E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8">
       <c r="A11" s="37">
         <v>10</v>
       </c>
@@ -58775,7 +58815,7 @@
         <v>-1.28185758256192E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8">
       <c r="A12" s="37">
         <v>11</v>
       </c>
@@ -58801,7 +58841,7 @@
         <v>0.122157041444017</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8">
       <c r="A13" s="37">
         <v>12</v>
       </c>
@@ -58827,7 +58867,7 @@
         <v>-6.8148770043064003E-3</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8">
       <c r="A14" s="37">
         <v>13</v>
       </c>
@@ -58853,7 +58893,7 @@
         <v>-3.2862031951603601E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8">
       <c r="A15" s="37">
         <v>14</v>
       </c>
@@ -58879,7 +58919,7 @@
         <v>7.2350220700813705E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8">
       <c r="A16" s="37">
         <v>15</v>
       </c>
@@ -58905,7 +58945,7 @@
         <v>1.6391621589625101E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8">
       <c r="A17" s="37">
         <v>16</v>
       </c>
@@ -58931,7 +58971,7 @@
         <v>-6.4099118998180202E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8">
       <c r="A18" s="37">
         <v>17</v>
       </c>
@@ -58957,7 +58997,7 @@
         <v>0.132207363199941</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8">
       <c r="A19" s="37">
         <v>18</v>
       </c>
@@ -58983,7 +59023,7 @@
         <v>5.7878991062348298E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8">
       <c r="A20" s="37">
         <v>19</v>
       </c>
@@ -59009,7 +59049,7 @@
         <v>0.15121374685533101</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8">
       <c r="A21" s="37">
         <v>20</v>
       </c>
@@ -59035,7 +59075,7 @@
         <v>0.27692760898353702</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:8">
       <c r="A22" s="37">
         <v>21</v>
       </c>
@@ -59061,7 +59101,7 @@
         <v>7.1830501739047299E-3</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8">
       <c r="A23" s="37">
         <v>22</v>
       </c>
@@ -59087,7 +59127,7 @@
         <v>0.14127262326529</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:8">
       <c r="A24" s="37">
         <v>23</v>
       </c>
@@ -59113,7 +59153,7 @@
         <v>7.26229728013503E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:8">
       <c r="A25" s="37">
         <v>24</v>
       </c>
@@ -59139,7 +59179,7 @@
         <v>-5.8227756901364898E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:8">
       <c r="A26" s="37">
         <v>25</v>
       </c>
@@ -59165,7 +59205,7 @@
         <v>0.24637812489040001</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:8">
       <c r="A27" s="37">
         <v>26</v>
       </c>
@@ -59191,7 +59231,7 @@
         <v>1.9333418594014301E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:8">
       <c r="A28" s="37">
         <v>27</v>
       </c>
@@ -59217,7 +59257,7 @@
         <v>6.2701819552842306E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:8">
       <c r="A29" s="37">
         <v>28</v>
       </c>
@@ -59243,7 +59283,7 @@
         <v>6.7956067565759601E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:8">
       <c r="A30" s="37">
         <v>29</v>
       </c>
@@ -59269,7 +59309,7 @@
         <v>1.8983112937799099E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:8">
       <c r="A31" s="30">
         <v>30</v>
       </c>
@@ -59295,7 +59335,7 @@
         <v>6.0817352637200797E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:8">
       <c r="A32" s="30">
         <v>31</v>
       </c>
@@ -59321,7 +59361,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:8">
       <c r="A33" s="30"/>
       <c r="B33" s="39">
         <v>9101</v>
@@ -59345,7 +59385,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:8">
       <c r="A34" s="30"/>
       <c r="B34" s="33">
         <v>70</v>
@@ -59363,7 +59403,7 @@
       <c r="G34" s="30"/>
       <c r="H34" s="30"/>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:8">
       <c r="A35" s="30"/>
       <c r="B35" s="33">
         <v>71</v>
@@ -59381,7 +59421,7 @@
       <c r="G35" s="30"/>
       <c r="H35" s="30"/>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:8">
       <c r="A36" s="30"/>
       <c r="B36" s="33">
         <v>72</v>
@@ -59399,7 +59439,7 @@
       <c r="G36" s="30"/>
       <c r="H36" s="30"/>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:8">
       <c r="A37" s="30"/>
       <c r="B37" s="33">
         <v>73</v>
@@ -59417,7 +59457,7 @@
       <c r="G37" s="30"/>
       <c r="H37" s="30"/>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:8">
       <c r="A38" s="30"/>
       <c r="B38" s="33">
         <v>74</v>
@@ -59435,7 +59475,7 @@
       <c r="G38" s="30"/>
       <c r="H38" s="30"/>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:8">
       <c r="A39" s="30"/>
       <c r="B39" s="33">
         <v>77</v>
@@ -59453,7 +59493,7 @@
       <c r="G39" s="30"/>
       <c r="H39" s="30"/>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:8">
       <c r="A40" s="30"/>
       <c r="B40" s="33">
         <v>78</v>
@@ -59471,7 +59511,7 @@
       <c r="G40" s="30"/>
       <c r="H40" s="30"/>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:8">
       <c r="A41" s="30"/>
       <c r="B41" s="31"/>
       <c r="C41" s="30"/>
@@ -59481,7 +59521,7 @@
       <c r="G41" s="30"/>
       <c r="H41" s="30"/>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:8">
       <c r="A42" s="30"/>
       <c r="B42" s="31"/>
       <c r="C42" s="30"/>
@@ -59491,7 +59531,7 @@
       <c r="G42" s="30"/>
       <c r="H42" s="30"/>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:8">
       <c r="A43" s="30"/>
       <c r="B43" s="31"/>
       <c r="C43" s="31"/>
@@ -59501,7 +59541,7 @@
       <c r="G43" s="31"/>
       <c r="H43" s="31"/>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:8">
       <c r="A44" s="30"/>
       <c r="B44" s="31"/>
       <c r="C44" s="31"/>
@@ -59511,7 +59551,7 @@
       <c r="G44" s="31"/>
       <c r="H44" s="31"/>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:8">
       <c r="A45" s="30"/>
       <c r="B45" s="31"/>
       <c r="C45" s="30"/>
@@ -59521,7 +59561,7 @@
       <c r="G45" s="30"/>
       <c r="H45" s="30"/>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:8">
       <c r="A46" s="30"/>
       <c r="B46" s="31"/>
       <c r="C46" s="30"/>
@@ -59531,7 +59571,7 @@
       <c r="G46" s="30"/>
       <c r="H46" s="30"/>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:8">
       <c r="A47" s="30"/>
       <c r="B47" s="31"/>
       <c r="C47" s="30"/>
@@ -59541,7 +59581,7 @@
       <c r="G47" s="30"/>
       <c r="H47" s="30"/>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:8">
       <c r="A48" s="30"/>
       <c r="B48" s="31"/>
       <c r="C48" s="30"/>
@@ -59551,7 +59591,7 @@
       <c r="G48" s="30"/>
       <c r="H48" s="30"/>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:8">
       <c r="A49" s="30"/>
       <c r="B49" s="31"/>
       <c r="C49" s="30"/>
@@ -59561,7 +59601,7 @@
       <c r="G49" s="30"/>
       <c r="H49" s="30"/>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:8">
       <c r="A50" s="30"/>
       <c r="B50" s="31"/>
       <c r="C50" s="30"/>
@@ -59571,7 +59611,7 @@
       <c r="G50" s="30"/>
       <c r="H50" s="30"/>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:8">
       <c r="A51" s="30"/>
       <c r="B51" s="31"/>
       <c r="C51" s="30"/>
@@ -59581,7 +59621,7 @@
       <c r="G51" s="30"/>
       <c r="H51" s="30"/>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:8">
       <c r="A52" s="30"/>
       <c r="B52" s="31"/>
       <c r="C52" s="30"/>
@@ -59591,7 +59631,7 @@
       <c r="G52" s="30"/>
       <c r="H52" s="30"/>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:8">
       <c r="A53" s="30"/>
       <c r="B53" s="31"/>
       <c r="C53" s="30"/>
@@ -59601,7 +59641,7 @@
       <c r="G53" s="30"/>
       <c r="H53" s="30"/>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:8">
       <c r="A54" s="30"/>
       <c r="B54" s="31"/>
       <c r="C54" s="30"/>
@@ -59611,7 +59651,7 @@
       <c r="G54" s="30"/>
       <c r="H54" s="30"/>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:8">
       <c r="A55" s="30"/>
       <c r="B55" s="31"/>
       <c r="C55" s="30"/>
@@ -59621,7 +59661,7 @@
       <c r="G55" s="30"/>
       <c r="H55" s="30"/>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:8">
       <c r="A56" s="30"/>
       <c r="B56" s="31"/>
       <c r="C56" s="30"/>
@@ -59631,7 +59671,7 @@
       <c r="G56" s="30"/>
       <c r="H56" s="30"/>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:8">
       <c r="A57" s="30"/>
       <c r="B57" s="31"/>
       <c r="C57" s="30"/>
@@ -59641,7 +59681,7 @@
       <c r="G57" s="30"/>
       <c r="H57" s="30"/>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:8">
       <c r="A58" s="30"/>
       <c r="B58" s="31"/>
       <c r="C58" s="30"/>
@@ -59651,7 +59691,7 @@
       <c r="G58" s="30"/>
       <c r="H58" s="30"/>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:8">
       <c r="A59" s="30"/>
       <c r="B59" s="31"/>
       <c r="C59" s="30"/>
@@ -59661,7 +59701,7 @@
       <c r="G59" s="30"/>
       <c r="H59" s="30"/>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:8">
       <c r="A60" s="30"/>
       <c r="B60" s="31"/>
       <c r="C60" s="30"/>
@@ -59671,7 +59711,7 @@
       <c r="G60" s="30"/>
       <c r="H60" s="30"/>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:8">
       <c r="A61" s="30"/>
       <c r="B61" s="31"/>
       <c r="C61" s="30"/>
@@ -59681,7 +59721,7 @@
       <c r="G61" s="30"/>
       <c r="H61" s="30"/>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:8">
       <c r="A62" s="30"/>
       <c r="B62" s="31"/>
       <c r="C62" s="30"/>
@@ -59691,7 +59731,7 @@
       <c r="G62" s="30"/>
       <c r="H62" s="30"/>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:8">
       <c r="A63" s="30"/>
       <c r="B63" s="31"/>
       <c r="C63" s="30"/>
